--- a/Data/Portfolio sorting/Processed IV/MeanIV.xlsx
+++ b/Data/Portfolio sorting/Processed IV/MeanIV.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/antonis_mavritsakis_deltares_nl/Documents/Documents/Python Projects/wsb-sentiment-analysis/Data/Portfolio sorting/Processed IV/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_001480324F10D73ECEFE31D2F8375B06541B9994" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7FFBAAD-3C75-4467-A845-30775134B2AF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,11 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +111,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -151,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +197,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,6 +249,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,14 +442,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44200</v>
       </c>
@@ -427,59 +480,59 @@
         <v>1.524441318840581</v>
       </c>
       <c r="C2">
-        <v>1.859301631578948</v>
+        <v>1.8593016315789479</v>
       </c>
       <c r="D2">
-        <v>1.066687827763496</v>
+        <v>1.0666878277634959</v>
       </c>
       <c r="E2">
         <v>0.9247655775311131</v>
       </c>
       <c r="F2">
-        <v>0.3445434506594434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.34454345065944342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44201</v>
       </c>
       <c r="B3">
-        <v>1.477625497701151</v>
+        <v>1.4776254977011509</v>
       </c>
       <c r="C3">
-        <v>1.897313991735538</v>
+        <v>1.8973139917355379</v>
       </c>
       <c r="D3">
         <v>1.031625081232493</v>
       </c>
       <c r="E3">
-        <v>0.8849154828711264</v>
+        <v>0.88491548287112642</v>
       </c>
       <c r="F3">
-        <v>0.3362539701004177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.33625397010041769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44202</v>
       </c>
       <c r="B4">
-        <v>1.415551572815532</v>
+        <v>1.4155515728155319</v>
       </c>
       <c r="C4">
-        <v>1.939673517391305</v>
+        <v>1.9396735173913049</v>
       </c>
       <c r="D4">
-        <v>1.007799157458564</v>
+        <v>1.0077991574585641</v>
       </c>
       <c r="E4">
-        <v>0.9677635548632207</v>
+        <v>0.96776355486322074</v>
       </c>
       <c r="F4">
         <v>0.3470940086698614</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44203</v>
       </c>
@@ -487,19 +540,19 @@
         <v>1.475236029953916</v>
       </c>
       <c r="C5">
-        <v>1.89828220661157</v>
+        <v>1.8982822066115701</v>
       </c>
       <c r="D5">
-        <v>1.076622384615385</v>
+        <v>1.0766223846153851</v>
       </c>
       <c r="E5">
-        <v>0.9822189563768121</v>
+        <v>0.98221895637681211</v>
       </c>
       <c r="F5">
-        <v>0.3573968536221915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.35739685362219148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44204</v>
       </c>
@@ -510,41 +563,41 @@
         <v>1.878696829166667</v>
       </c>
       <c r="D6">
-        <v>1.095147856338028</v>
+        <v>1.0951478563380279</v>
       </c>
       <c r="E6">
         <v>1.02909820158567</v>
       </c>
       <c r="F6">
-        <v>0.3461509619101767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.34615096191017669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44207</v>
       </c>
       <c r="B7">
-        <v>1.484845084158419</v>
+        <v>1.4848450841584191</v>
       </c>
       <c r="C7">
-        <v>1.862294656903766</v>
+        <v>1.8622946569037659</v>
       </c>
       <c r="D7">
-        <v>1.096345068965518</v>
+        <v>1.0963450689655181</v>
       </c>
       <c r="E7">
-        <v>0.9573761767764301</v>
+        <v>0.95737617677643005</v>
       </c>
       <c r="F7">
-        <v>0.3176896287082486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.31768962870824857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44208</v>
       </c>
       <c r="B8">
-        <v>1.419551712574851</v>
+        <v>1.4195517125748509</v>
       </c>
       <c r="C8">
         <v>1.799042841409692</v>
@@ -556,35 +609,35 @@
         <v>1.030917350674371</v>
       </c>
       <c r="F8">
-        <v>0.3857528993578493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.38575289935784929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44209</v>
       </c>
       <c r="B9">
-        <v>1.776167865621502</v>
+        <v>1.7761678656215021</v>
       </c>
       <c r="C9">
-        <v>1.830049582608695</v>
+        <v>1.8300495826086951</v>
       </c>
       <c r="D9">
-        <v>1.109578379888268</v>
+        <v>1.1095783798882679</v>
       </c>
       <c r="E9">
-        <v>0.9897722459988957</v>
+        <v>0.98977224599889568</v>
       </c>
       <c r="F9">
-        <v>0.3637567587876007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.36375675878760072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44210</v>
       </c>
       <c r="B10">
-        <v>1.85728967505721</v>
+        <v>1.8572896750572101</v>
       </c>
       <c r="C10">
         <v>1.92520055982906</v>
@@ -593,13 +646,13 @@
         <v>1.609213452449568</v>
       </c>
       <c r="E10">
-        <v>0.9703543908899788</v>
+        <v>0.97035439088997877</v>
       </c>
       <c r="F10">
-        <v>0.3614909333562362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.36149093335623622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44211</v>
       </c>
@@ -613,13 +666,13 @@
         <v>1.606396082595871</v>
       </c>
       <c r="E11">
-        <v>0.985834262331528</v>
+        <v>0.98583426233152804</v>
       </c>
       <c r="F11">
-        <v>0.2931104825675364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.29311048256753641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44215</v>
       </c>
@@ -630,21 +683,21 @@
         <v>1.986299605381167</v>
       </c>
       <c r="D12">
-        <v>1.735075759109311</v>
+        <v>1.7350757591093111</v>
       </c>
       <c r="E12">
-        <v>0.9793787759570554</v>
+        <v>0.97937877595705536</v>
       </c>
       <c r="F12">
-        <v>0.3359000095682328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.33590000956823279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44216</v>
       </c>
       <c r="B13">
-        <v>1.841140190476192</v>
+        <v>1.8411401904761919</v>
       </c>
       <c r="C13">
         <v>1.895225686695279</v>
@@ -656,10 +709,10 @@
         <v>0.9987658586670366</v>
       </c>
       <c r="F13">
-        <v>0.3403308524729595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.34033085247295952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44217</v>
       </c>
@@ -667,19 +720,19 @@
         <v>1.723498262564104</v>
       </c>
       <c r="C14">
-        <v>1.824079891791044</v>
+        <v>1.8240798917910439</v>
       </c>
       <c r="D14">
-        <v>1.45327627376426</v>
+        <v>1.4532762737642599</v>
       </c>
       <c r="E14">
-        <v>0.9275947647399642</v>
+        <v>0.92759476473996416</v>
       </c>
       <c r="F14">
-        <v>0.3357192162834807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.33571921628348073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44218</v>
       </c>
@@ -690,36 +743,36 @@
         <v>2.072200395348839</v>
       </c>
       <c r="D15">
-        <v>1.636184365384615</v>
+        <v>1.6361843653846151</v>
       </c>
       <c r="E15">
         <v>0.9759001829697449</v>
       </c>
       <c r="F15">
-        <v>0.3452000332031251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.34520003320312509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44221</v>
       </c>
       <c r="B16">
-        <v>2.065707038348081</v>
+        <v>2.0657070383480809</v>
       </c>
       <c r="C16">
-        <v>2.161746575418994</v>
+        <v>2.1617465754189942</v>
       </c>
       <c r="D16">
-        <v>2.113860656250001</v>
+        <v>2.1138606562500009</v>
       </c>
       <c r="E16">
-        <v>1.071547526094274</v>
+        <v>1.0715475260942739</v>
       </c>
       <c r="F16">
-        <v>0.335519038732815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.33551903873281502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44222</v>
       </c>
@@ -727,19 +780,19 @@
         <v>1.960902315217391</v>
       </c>
       <c r="C17">
-        <v>2.12785517204301</v>
+        <v>2.1278551720430099</v>
       </c>
       <c r="D17">
-        <v>2.124386494755244</v>
+        <v>2.1243864947552442</v>
       </c>
       <c r="E17">
         <v>1.044453513566433</v>
       </c>
       <c r="F17">
-        <v>0.3167229139667522</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.31672291396675217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44223</v>
       </c>
@@ -747,19 +800,19 @@
         <v>1.977978863063065</v>
       </c>
       <c r="C18">
-        <v>2.031916457943925</v>
+        <v>2.0319164579439248</v>
       </c>
       <c r="D18">
-        <v>2.120392469387754</v>
+        <v>2.1203924693877538</v>
       </c>
       <c r="E18">
-        <v>0.9991621152482266</v>
+        <v>0.99916211524822662</v>
       </c>
       <c r="F18">
-        <v>0.3404278388728327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.34042783887283268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44224</v>
       </c>
@@ -767,19 +820,19 @@
         <v>2.15889563181149</v>
       </c>
       <c r="C19">
-        <v>2.021438108333334</v>
+        <v>2.0214381083333341</v>
       </c>
       <c r="D19">
-        <v>2.087830818918918</v>
+        <v>2.0878308189189179</v>
       </c>
       <c r="E19">
-        <v>0.9861692876731077</v>
+        <v>0.98616928767310774</v>
       </c>
       <c r="F19">
-        <v>0.3731959158541004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.37319591585410039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44225</v>
       </c>
@@ -787,19 +840,19 @@
         <v>2.110568940934066</v>
       </c>
       <c r="C20">
-        <v>2.124824085470085</v>
+        <v>2.1248240854700851</v>
       </c>
       <c r="D20">
-        <v>2.19588406278027</v>
+        <v>2.1958840627802698</v>
       </c>
       <c r="E20">
-        <v>0.9860539353448274</v>
+        <v>0.98605393534482744</v>
       </c>
       <c r="F20">
-        <v>0.3723926364167939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.37239263641679388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44228</v>
       </c>
@@ -810,16 +863,16 @@
         <v>2.112209069105691</v>
       </c>
       <c r="D21">
-        <v>2.183276438957478</v>
+        <v>2.1832764389574781</v>
       </c>
       <c r="E21">
         <v>1.029420240768095</v>
       </c>
       <c r="F21">
-        <v>0.3696810560365018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.36968105603650181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44229</v>
       </c>
@@ -833,13 +886,13 @@
         <v>1.753685673885351</v>
       </c>
       <c r="E22">
-        <v>0.9199141245630766</v>
+        <v>0.91991412456307664</v>
       </c>
       <c r="F22">
-        <v>0.3540335097065971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.35403350970659708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44230</v>
       </c>
@@ -847,59 +900,59 @@
         <v>1.911928606805293</v>
       </c>
       <c r="C23">
-        <v>2.11461846091644</v>
+        <v>2.1146184609164398</v>
       </c>
       <c r="D23">
-        <v>1.736571594278285</v>
+        <v>1.7365715942782849</v>
       </c>
       <c r="E23">
         <v>0.9772149807636682</v>
       </c>
       <c r="F23">
-        <v>0.3518019154672137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.35180191546721368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44231</v>
       </c>
       <c r="B24">
-        <v>1.916868728558797</v>
+        <v>1.9168687285587971</v>
       </c>
       <c r="C24">
-        <v>2.193002116981131</v>
+        <v>2.1930021169811309</v>
       </c>
       <c r="D24">
-        <v>1.649755452380952</v>
+        <v>1.6497554523809519</v>
       </c>
       <c r="E24">
-        <v>0.8878721092020477</v>
+        <v>0.88787210920204773</v>
       </c>
       <c r="F24">
-        <v>0.2870626504573344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.28706265045733442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44232</v>
       </c>
       <c r="B25">
-        <v>1.987948080068146</v>
+        <v>1.9879480800681459</v>
       </c>
       <c r="C25">
-        <v>2.151645876785709</v>
+        <v>2.1516458767857092</v>
       </c>
       <c r="D25">
         <v>1.651472211421628</v>
       </c>
       <c r="E25">
-        <v>0.9648099148677369</v>
+        <v>0.96480991486773693</v>
       </c>
       <c r="F25">
-        <v>0.3193106256661227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.31931062566612273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44235</v>
       </c>
@@ -907,39 +960,39 @@
         <v>2.059600034334764</v>
       </c>
       <c r="C26">
-        <v>2.076052825046042</v>
+        <v>2.0760528250460419</v>
       </c>
       <c r="D26">
-        <v>1.610633815686277</v>
+        <v>1.6106338156862769</v>
       </c>
       <c r="E26">
-        <v>0.9106323073309823</v>
+        <v>0.91063230733098233</v>
       </c>
       <c r="F26">
-        <v>0.2883238054947735</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.28832380549477349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44236</v>
       </c>
       <c r="B27">
-        <v>2.124569256993005</v>
+        <v>2.1245692569930048</v>
       </c>
       <c r="C27">
-        <v>2.060193744642855</v>
+        <v>2.0601937446428549</v>
       </c>
       <c r="D27">
         <v>1.544731308823529</v>
       </c>
       <c r="E27">
-        <v>0.9446050629673963</v>
+        <v>0.94460506296739633</v>
       </c>
       <c r="F27">
-        <v>0.30173765239963</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.30173765239963002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44237</v>
       </c>
@@ -947,19 +1000,19 @@
         <v>2.111312644402036</v>
       </c>
       <c r="C28">
-        <v>2.062923460500963</v>
+        <v>2.0629234605009632</v>
       </c>
       <c r="D28">
         <v>1.553287591463413</v>
       </c>
       <c r="E28">
-        <v>0.9305597797208427</v>
+        <v>0.93055977972084269</v>
       </c>
       <c r="F28">
-        <v>0.2995867126834511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.29958671268345111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44238</v>
       </c>
@@ -967,39 +1020,39 @@
         <v>2.087033004153688</v>
       </c>
       <c r="C29">
-        <v>2.004699014802635</v>
+        <v>2.0046990148026351</v>
       </c>
       <c r="D29">
         <v>1.490203074204947</v>
       </c>
       <c r="E29">
-        <v>0.9055611076754044</v>
+        <v>0.90556110767540443</v>
       </c>
       <c r="F29">
-        <v>0.3075668933588035</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.30756689335880349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44239</v>
       </c>
       <c r="B30">
-        <v>2.004642450419343</v>
+        <v>2.0046424504193432</v>
       </c>
       <c r="C30">
-        <v>1.895075516239315</v>
+        <v>1.8950755162393149</v>
       </c>
       <c r="D30">
         <v>1.447755581795819</v>
       </c>
       <c r="E30">
-        <v>0.8934608822692781</v>
+        <v>0.89346088226927811</v>
       </c>
       <c r="F30">
-        <v>0.3332484592517238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.33324845925172381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44243</v>
       </c>
@@ -1010,16 +1063,16 @@
         <v>1.823516306985294</v>
       </c>
       <c r="D31">
-        <v>1.372849484168864</v>
+        <v>1.3728494841688641</v>
       </c>
       <c r="E31">
         <v>0.927389138708682</v>
       </c>
       <c r="F31">
-        <v>0.3683249095037658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.36832490950376578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44244</v>
       </c>
@@ -1033,13 +1086,13 @@
         <v>1.339756037241379</v>
       </c>
       <c r="E32">
-        <v>0.9734739023334859</v>
+        <v>0.97347390233348585</v>
       </c>
       <c r="F32">
-        <v>0.3384491489921116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.33844914899211159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44245</v>
       </c>
@@ -1050,16 +1103,16 @@
         <v>1.848026521575985</v>
       </c>
       <c r="D33">
-        <v>1.352640380434783</v>
+        <v>1.3526403804347831</v>
       </c>
       <c r="E33">
-        <v>0.8787648282960305</v>
+        <v>0.87876482829603053</v>
       </c>
       <c r="F33">
-        <v>0.3233217195381692</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.32332171953816918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44246</v>
       </c>
@@ -1067,7 +1120,7 @@
         <v>1.844725027237353</v>
       </c>
       <c r="C34">
-        <v>1.745038986717267</v>
+        <v>1.7450389867172671</v>
       </c>
       <c r="D34">
         <v>1.289131441481481</v>
@@ -1076,10 +1129,10 @@
         <v>0.843180264322272</v>
       </c>
       <c r="F34">
-        <v>0.2905027273500143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.29050272735001431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44249</v>
       </c>
@@ -1096,10 +1149,10 @@
         <v>0.9423148513137547</v>
       </c>
       <c r="F35">
-        <v>0.3416852317045198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.34168523170451981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44250</v>
       </c>
@@ -1107,19 +1160,19 @@
         <v>1.841411848484849</v>
       </c>
       <c r="C36">
-        <v>1.794566482617587</v>
+        <v>1.7945664826175871</v>
       </c>
       <c r="D36">
-        <v>1.355509595454545</v>
+        <v>1.3555095954545451</v>
       </c>
       <c r="E36">
-        <v>0.9114140693418926</v>
+        <v>0.91141406934189262</v>
       </c>
       <c r="F36">
-        <v>0.3583721660482383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.35837216604823829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44251</v>
       </c>
@@ -1130,36 +1183,36 @@
         <v>1.913479719424461</v>
       </c>
       <c r="D37">
-        <v>1.609214880837358</v>
+        <v>1.6092148808373581</v>
       </c>
       <c r="E37">
-        <v>0.9576815046771309</v>
+        <v>0.95768150467713087</v>
       </c>
       <c r="F37">
-        <v>0.3438757487167529</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.34387574871675292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44252</v>
       </c>
       <c r="B38">
-        <v>1.98451546119536</v>
+        <v>1.9845154611953599</v>
       </c>
       <c r="C38">
-        <v>1.828313164241164</v>
+        <v>1.8283131642411641</v>
       </c>
       <c r="D38">
         <v>1.522887413333333</v>
       </c>
       <c r="E38">
-        <v>0.9984496223638303</v>
+        <v>0.99844962236383028</v>
       </c>
       <c r="F38">
         <v>0.3828540461285026</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44253</v>
       </c>
@@ -1173,21 +1226,21 @@
         <v>1.372780566129032</v>
       </c>
       <c r="E39">
-        <v>0.9715311408582097</v>
+        <v>0.97153114085820969</v>
       </c>
       <c r="F39">
-        <v>0.3786909057585436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.37869090575854358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44256</v>
       </c>
       <c r="B40">
-        <v>1.936417199626867</v>
+        <v>1.9364171996268671</v>
       </c>
       <c r="C40">
-        <v>1.970346599999999</v>
+        <v>1.9703465999999989</v>
       </c>
       <c r="D40">
         <v>1.41379847368421</v>
@@ -1196,15 +1249,15 @@
         <v>0.8747163332283463</v>
       </c>
       <c r="F40">
-        <v>0.2952520974864936</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.29525209748649361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44257</v>
       </c>
       <c r="B41">
-        <v>2.002395602704987</v>
+        <v>2.0023956027049872</v>
       </c>
       <c r="C41">
         <v>1.936382702048417</v>
@@ -1216,10 +1269,10 @@
         <v>0.9477138030233575</v>
       </c>
       <c r="F41">
-        <v>0.3630369902564675</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.36303699025646752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44258</v>
       </c>
@@ -1230,61 +1283,61 @@
         <v>1.915253517123285</v>
       </c>
       <c r="D42">
-        <v>1.39739104318937</v>
+        <v>1.3973910431893699</v>
       </c>
       <c r="E42">
-        <v>0.9703999935289679</v>
+        <v>0.97039999352896789</v>
       </c>
       <c r="F42">
-        <v>0.362770698213255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.36277069821325503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44259</v>
       </c>
       <c r="B43">
-        <v>2.154266028191067</v>
+        <v>2.1542660281910671</v>
       </c>
       <c r="C43">
         <v>1.917070706375837</v>
       </c>
       <c r="D43">
-        <v>1.38611619230769</v>
+        <v>1.3861161923076899</v>
       </c>
       <c r="E43">
-        <v>0.9793498042049897</v>
+        <v>0.97934980420498974</v>
       </c>
       <c r="F43">
-        <v>0.3157174890485572</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.31571748904855718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44260</v>
       </c>
       <c r="B44">
-        <v>2.112043388038947</v>
+        <v>2.1120433880389471</v>
       </c>
       <c r="C44">
-        <v>1.81180291905565</v>
+        <v>1.8118029190556499</v>
       </c>
       <c r="D44">
-        <v>1.359407492091388</v>
+        <v>1.3594074920913879</v>
       </c>
       <c r="E44">
-        <v>0.9810309241139044</v>
+        <v>0.98103092411390436</v>
       </c>
       <c r="F44">
-        <v>0.339363893235998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.33936389323599803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44263</v>
       </c>
       <c r="B45">
-        <v>1.924191670777989</v>
+        <v>1.9241916707779889</v>
       </c>
       <c r="C45">
         <v>1.929084869642858</v>
@@ -1296,61 +1349,61 @@
         <v>1.013356872270742</v>
       </c>
       <c r="F45">
-        <v>0.3789774176602528</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.37897741766025278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44264</v>
       </c>
       <c r="B46">
-        <v>1.890934939060941</v>
+        <v>1.8909349390609409</v>
       </c>
       <c r="C46">
-        <v>2.011764845588235</v>
+        <v>2.0117648455882349</v>
       </c>
       <c r="D46">
         <v>1.431509732203389</v>
       </c>
       <c r="E46">
-        <v>0.9968131446618417</v>
+        <v>0.99681314466184168</v>
       </c>
       <c r="F46">
-        <v>0.3442315602470526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.34423156024705259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44265</v>
       </c>
       <c r="B47">
-        <v>2.025181075638505</v>
+        <v>2.0251810756385051</v>
       </c>
       <c r="C47">
         <v>2.077871559454191</v>
       </c>
       <c r="D47">
-        <v>1.398405514731368</v>
+        <v>1.3984055147313681</v>
       </c>
       <c r="E47">
         <v>1.014636194041254</v>
       </c>
       <c r="F47">
-        <v>0.3546108257009351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.35461082570093511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44266</v>
       </c>
       <c r="B48">
-        <v>2.07726729928952</v>
+        <v>2.0772672992895198</v>
       </c>
       <c r="C48">
         <v>1.959578002890177</v>
       </c>
       <c r="D48">
-        <v>1.387663624000001</v>
+        <v>1.3876636240000011</v>
       </c>
       <c r="E48">
         <v>1.002068432029227</v>
@@ -1359,12 +1412,12 @@
         <v>0.2962115760479036</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44267</v>
       </c>
       <c r="B49">
-        <v>1.995129196494465</v>
+        <v>1.9951291964944651</v>
       </c>
       <c r="C49">
         <v>1.948480419881307</v>
@@ -1373,13 +1426,13 @@
         <v>1.428498991652756</v>
       </c>
       <c r="E49">
-        <v>0.9101441441441454</v>
+        <v>0.91014414414414535</v>
       </c>
       <c r="F49">
-        <v>0.3287382433152118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.32873824331521179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44270</v>
       </c>
@@ -1390,16 +1443,16 @@
         <v>2.085937326894503</v>
       </c>
       <c r="D50">
-        <v>1.380989436065576</v>
+        <v>1.3809894360655759</v>
       </c>
       <c r="E50">
-        <v>0.9050893506343733</v>
+        <v>0.90508935063437335</v>
       </c>
       <c r="F50">
-        <v>0.3554670843046275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.35546708430462748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44271</v>
       </c>
@@ -1407,27 +1460,27 @@
         <v>1.936137841860464</v>
       </c>
       <c r="C51">
-        <v>2.030711254327565</v>
+        <v>2.0307112543275649</v>
       </c>
       <c r="D51">
-        <v>1.322712712564544</v>
+        <v>1.3227127125645439</v>
       </c>
       <c r="E51">
-        <v>0.9466716496456223</v>
+        <v>0.94667164964562234</v>
       </c>
       <c r="F51">
-        <v>0.3890480666065582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.38904806660655822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44272</v>
       </c>
       <c r="B52">
-        <v>2.033938236722307</v>
+        <v>2.0339382367223071</v>
       </c>
       <c r="C52">
-        <v>1.958577387448838</v>
+        <v>1.9585773874488379</v>
       </c>
       <c r="D52">
         <v>1.296243362862012</v>
@@ -1436,35 +1489,35 @@
         <v>0.8892670576564371</v>
       </c>
       <c r="F52">
-        <v>0.2959460560886591</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.29594605608865909</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44273</v>
       </c>
       <c r="B53">
-        <v>2.20636001510067</v>
+        <v>2.2063600151006701</v>
       </c>
       <c r="C53">
         <v>1.885012823369564</v>
       </c>
       <c r="D53">
-        <v>1.220125144039735</v>
+        <v>1.2201251440397349</v>
       </c>
       <c r="E53">
-        <v>0.9489041201271545</v>
+        <v>0.94890412012715453</v>
       </c>
       <c r="F53">
-        <v>0.3867646699964737</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.38676466999647369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44274</v>
       </c>
       <c r="B54">
-        <v>2.267846323685479</v>
+        <v>2.2678463236854789</v>
       </c>
       <c r="C54">
         <v>1.820926135446685</v>
@@ -1473,58 +1526,58 @@
         <v>1.17674109557522</v>
       </c>
       <c r="E54">
-        <v>0.9053293540214282</v>
+        <v>0.90532935402142822</v>
       </c>
       <c r="F54">
-        <v>0.3343166130519175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.33431661305191751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44277</v>
       </c>
       <c r="B55">
-        <v>2.190994352881697</v>
+        <v>2.1909943528816971</v>
       </c>
       <c r="C55">
-        <v>1.760242876560331</v>
+        <v>1.7602428765603311</v>
       </c>
       <c r="D55">
         <v>1.163854464406779</v>
       </c>
       <c r="E55">
-        <v>0.9161289593495923</v>
+        <v>0.91612895934959226</v>
       </c>
       <c r="F55">
-        <v>0.2834969847783735</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.28349698477837348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44278</v>
       </c>
       <c r="B56">
-        <v>2.082022642371831</v>
+        <v>2.0820226423718311</v>
       </c>
       <c r="C56">
         <v>1.878054631724134</v>
       </c>
       <c r="D56">
-        <v>1.20137551023891</v>
+        <v>1.2013755102389101</v>
       </c>
       <c r="E56">
-        <v>0.8293106003187516</v>
+        <v>0.82931060031875159</v>
       </c>
       <c r="F56">
-        <v>0.2883300368143334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.28833003681433339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44279</v>
       </c>
       <c r="B57">
-        <v>2.142331208073046</v>
+        <v>2.1423312080730459</v>
       </c>
       <c r="C57">
         <v>1.825853823033708</v>
@@ -1536,10 +1589,10 @@
         <v>0.8958555640437541</v>
       </c>
       <c r="F57">
-        <v>0.3354665871444718</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.33546658714447181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44280</v>
       </c>
@@ -1553,33 +1606,33 @@
         <v>1.220683092561984</v>
       </c>
       <c r="E58">
-        <v>0.8769959031260727</v>
+        <v>0.87699590312607267</v>
       </c>
       <c r="F58">
-        <v>0.3233257194707453</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.32332571947074529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44281</v>
       </c>
       <c r="B59">
-        <v>2.191535008707005</v>
+        <v>2.1915350087070049</v>
       </c>
       <c r="C59">
         <v>1.764014715240642</v>
       </c>
       <c r="D59">
-        <v>1.279569453924916</v>
+        <v>1.2795694539249161</v>
       </c>
       <c r="E59">
-        <v>0.8187312575401873</v>
+        <v>0.81873125754018727</v>
       </c>
       <c r="F59">
-        <v>0.2717272918765337</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.27172729187653372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44284</v>
       </c>
@@ -1593,13 +1646,13 @@
         <v>1.389836595149254</v>
       </c>
       <c r="E60">
-        <v>0.8345479383088091</v>
+        <v>0.83454793830880913</v>
       </c>
       <c r="F60">
-        <v>0.2968942004002998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.29689420040029979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44285</v>
       </c>
@@ -1607,24 +1660,24 @@
         <v>2.057588321047954</v>
       </c>
       <c r="C61">
-        <v>1.70170580263158</v>
+        <v>1.7017058026315799</v>
       </c>
       <c r="D61">
-        <v>1.292867269439422</v>
+        <v>1.2928672694394221</v>
       </c>
       <c r="E61">
-        <v>0.8264375577132494</v>
+        <v>0.82643755771324945</v>
       </c>
       <c r="F61">
-        <v>0.2946503244892554</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.29465032448925538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44286</v>
       </c>
       <c r="B62">
-        <v>2.004984222365037</v>
+        <v>2.0049842223650369</v>
       </c>
       <c r="C62">
         <v>1.666840200564973</v>
@@ -1633,18 +1686,18 @@
         <v>1.149978990512333</v>
       </c>
       <c r="E62">
-        <v>0.8664807977232933</v>
+        <v>0.86648079772329334</v>
       </c>
       <c r="F62">
-        <v>0.3239623287812399</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.32396232878123993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44287</v>
       </c>
       <c r="B63">
-        <v>1.85513616053656</v>
+        <v>1.8551361605365599</v>
       </c>
       <c r="C63">
         <v>1.660504417789757</v>
@@ -1653,13 +1706,13 @@
         <v>1.087442527410208</v>
       </c>
       <c r="E63">
-        <v>0.8243262159090892</v>
+        <v>0.82432621590908917</v>
       </c>
       <c r="F63">
-        <v>0.2613201562889181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.26132015628891808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44291</v>
       </c>
@@ -1670,16 +1723,16 @@
         <v>1.607433936170213</v>
       </c>
       <c r="D64">
-        <v>1.090717035447761</v>
+        <v>1.0907170354477611</v>
       </c>
       <c r="E64">
-        <v>0.8191498559870543</v>
+        <v>0.81914985598705425</v>
       </c>
       <c r="F64">
-        <v>0.2696112035499936</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.26961120354999363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44292</v>
       </c>
@@ -1687,19 +1740,19 @@
         <v>1.703628325311946</v>
       </c>
       <c r="C65">
-        <v>1.57881026227209</v>
+        <v>1.5788102622720901</v>
       </c>
       <c r="D65">
-        <v>1.058990834307992</v>
+        <v>1.0589908343079919</v>
       </c>
       <c r="E65">
-        <v>0.7937997889390523</v>
+        <v>0.79379978893905234</v>
       </c>
       <c r="F65">
-        <v>0.26823951605325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.26823951605325003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44293</v>
       </c>
@@ -1707,24 +1760,24 @@
         <v>1.733376799105147</v>
       </c>
       <c r="C66">
-        <v>1.58273760165975</v>
+        <v>1.5827376016597501</v>
       </c>
       <c r="D66">
-        <v>1.091209131474104</v>
+        <v>1.0912091314741039</v>
       </c>
       <c r="E66">
-        <v>0.8312997392302265</v>
+        <v>0.83129973923022649</v>
       </c>
       <c r="F66">
-        <v>0.266521765187365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.26652176518736498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44294</v>
       </c>
       <c r="B67">
-        <v>1.739109253339474</v>
+        <v>1.7391092533394741</v>
       </c>
       <c r="C67">
         <v>1.56832478401122</v>
@@ -1733,18 +1786,18 @@
         <v>1.038714545631068</v>
       </c>
       <c r="E67">
-        <v>0.7838006693069314</v>
+        <v>0.78380066930693137</v>
       </c>
       <c r="F67">
-        <v>0.262496923307292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.26249692330729202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44295</v>
       </c>
       <c r="B68">
-        <v>1.693213298245612</v>
+        <v>1.6932132982456121</v>
       </c>
       <c r="C68">
         <v>1.572191068181817</v>
@@ -1753,13 +1806,13 @@
         <v>1.00084975387597</v>
       </c>
       <c r="E68">
-        <v>0.763941171438994</v>
+        <v>0.76394117143899398</v>
       </c>
       <c r="F68">
         <v>0.2560579783897251</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44298</v>
       </c>
@@ -1770,24 +1823,24 @@
         <v>1.673877380530973</v>
       </c>
       <c r="D69">
-        <v>0.9977755605095548</v>
+        <v>0.99777556050955485</v>
       </c>
       <c r="E69">
-        <v>0.7873023193183927</v>
+        <v>0.78730231931839267</v>
       </c>
       <c r="F69">
-        <v>0.2540864979832123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.25408649798321231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44299</v>
       </c>
       <c r="B70">
-        <v>1.732961046676818</v>
+        <v>1.7329610466768179</v>
       </c>
       <c r="C70">
-        <v>1.668837882438316</v>
+        <v>1.6688378824383161</v>
       </c>
       <c r="D70">
         <v>1.000858883858267</v>
@@ -1796,10 +1849,10 @@
         <v>0.8631097236683356</v>
       </c>
       <c r="F70">
-        <v>0.2605796486624991</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.26057964866249911</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44300</v>
       </c>
@@ -1810,104 +1863,104 @@
         <v>1.62334720472441</v>
       </c>
       <c r="D71">
-        <v>0.9719157044444448</v>
+        <v>0.97191570444444475</v>
       </c>
       <c r="E71">
-        <v>0.8201971985280266</v>
+        <v>0.82019719852802664</v>
       </c>
       <c r="F71">
-        <v>0.2462666005710658</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.24626660057106581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44301</v>
       </c>
       <c r="B72">
-        <v>1.674259412276217</v>
+        <v>1.6742594122762171</v>
       </c>
       <c r="C72">
-        <v>1.611071696048633</v>
+        <v>1.6110716960486331</v>
       </c>
       <c r="D72">
         <v>0.9668513677685947</v>
       </c>
       <c r="E72">
-        <v>0.8203995897910136</v>
+        <v>0.82039958979101357</v>
       </c>
       <c r="F72">
-        <v>0.2527534095756017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.25275340957560172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44302</v>
       </c>
       <c r="B73">
-        <v>1.658613016765286</v>
+        <v>1.6586130167652859</v>
       </c>
       <c r="C73">
         <v>1.555890374999999</v>
       </c>
       <c r="D73">
-        <v>0.9577145921052632</v>
+        <v>0.95771459210526322</v>
       </c>
       <c r="E73">
-        <v>0.8107694779981107</v>
+        <v>0.81076947799811072</v>
       </c>
       <c r="F73">
-        <v>0.2698016363162832</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.26980163631628318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44305</v>
       </c>
       <c r="B74">
-        <v>1.674158792916873</v>
+        <v>1.6741587929168731</v>
       </c>
       <c r="C74">
         <v>1.533514129429892</v>
       </c>
       <c r="D74">
-        <v>0.9520730843621394</v>
+        <v>0.95207308436213944</v>
       </c>
       <c r="E74">
-        <v>0.8287057170319092</v>
+        <v>0.82870571703190921</v>
       </c>
       <c r="F74">
         <v>0.2411983667597162</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44306</v>
       </c>
       <c r="B75">
-        <v>1.612750956407565</v>
+        <v>1.6127509564075651</v>
       </c>
       <c r="C75">
-        <v>1.576459030674846</v>
+        <v>1.5764590306748461</v>
       </c>
       <c r="D75">
-        <v>0.9992914679089019</v>
+        <v>0.99929146790890189</v>
       </c>
       <c r="E75">
         <v>0.8729772617546403</v>
       </c>
       <c r="F75">
-        <v>0.2926358851470742</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.29263588514707423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44307</v>
       </c>
       <c r="B76">
-        <v>1.546744981559537</v>
+        <v>1.5467449815595371</v>
       </c>
       <c r="C76">
-        <v>1.5508203216</v>
+        <v>1.5508203216000001</v>
       </c>
       <c r="D76">
         <v>1.018198904081633</v>
@@ -1916,10 +1969,10 @@
         <v>0.8185419310545754</v>
       </c>
       <c r="F76">
-        <v>0.2458765227436817</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.24587652274368171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44308</v>
       </c>
@@ -1927,39 +1980,39 @@
         <v>1.539446490245123</v>
       </c>
       <c r="C77">
-        <v>1.515469939042091</v>
+        <v>1.5154699390420909</v>
       </c>
       <c r="D77">
-        <v>0.9678632618025751</v>
+        <v>0.96786326180257509</v>
       </c>
       <c r="E77">
-        <v>0.8207746846366163</v>
+        <v>0.82077468463661629</v>
       </c>
       <c r="F77">
-        <v>0.2791524532738698</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.27915245327386978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44309</v>
       </c>
       <c r="B78">
-        <v>1.476563755681822</v>
+        <v>1.4765637556818221</v>
       </c>
       <c r="C78">
         <v>1.486783182228915</v>
       </c>
       <c r="D78">
-        <v>0.957683841365463</v>
+        <v>0.95768384136546303</v>
       </c>
       <c r="E78">
-        <v>0.81086059085923</v>
+        <v>0.81086059085923001</v>
       </c>
       <c r="F78">
         <v>0.2726086244048847</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44312</v>
       </c>
@@ -1973,93 +2026,93 @@
         <v>0.9686650161616166</v>
       </c>
       <c r="E79">
-        <v>0.8282102404044149</v>
+        <v>0.82821024040441493</v>
       </c>
       <c r="F79">
-        <v>0.2443216631837083</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.24432166318370829</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44313</v>
       </c>
       <c r="B80">
-        <v>1.486942327301754</v>
+        <v>1.4869423273017539</v>
       </c>
       <c r="C80">
         <v>1.546166004636786</v>
       </c>
       <c r="D80">
-        <v>1.099085632653061</v>
+        <v>1.0990856326530609</v>
       </c>
       <c r="E80">
-        <v>0.812388792390706</v>
+        <v>0.81238879239070605</v>
       </c>
       <c r="F80">
-        <v>0.2878834549653589</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.28788345496535889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44314</v>
       </c>
       <c r="B81">
-        <v>1.449055550387596</v>
+        <v>1.4490555503875959</v>
       </c>
       <c r="C81">
-        <v>1.575025188253013</v>
+        <v>1.5750251882530131</v>
       </c>
       <c r="D81">
-        <v>1.063742776876267</v>
+        <v>1.0637427768762671</v>
       </c>
       <c r="E81">
-        <v>0.8253259907491337</v>
+        <v>0.82532599074913371</v>
       </c>
       <c r="F81">
-        <v>0.238346415742321</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.23834641574232099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44315</v>
       </c>
       <c r="B82">
-        <v>1.452022671551285</v>
+        <v>1.4520226715512849</v>
       </c>
       <c r="C82">
-        <v>1.54772903292181</v>
+        <v>1.5477290329218101</v>
       </c>
       <c r="D82">
-        <v>0.9908157168674701</v>
+        <v>0.99081571686747005</v>
       </c>
       <c r="E82">
-        <v>0.7890793415602337</v>
+        <v>0.78907934156023374</v>
       </c>
       <c r="F82">
-        <v>0.2417948713525029</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.24179487135250291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44316</v>
       </c>
       <c r="B83">
-        <v>1.423272841397848</v>
+        <v>1.4232728413978479</v>
       </c>
       <c r="C83">
-        <v>1.501847394160584</v>
+        <v>1.5018473941605841</v>
       </c>
       <c r="D83">
         <v>0.9716063970588239</v>
       </c>
       <c r="E83">
-        <v>0.7563077757575757</v>
+        <v>0.75630777575757568</v>
       </c>
       <c r="F83">
-        <v>0.2390112047097478</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.23901120470974779</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44319</v>
       </c>
@@ -2073,18 +2126,18 @@
         <v>1.008232227678572</v>
       </c>
       <c r="E84">
-        <v>0.7549961174496673</v>
+        <v>0.75499611744966733</v>
       </c>
       <c r="F84">
-        <v>0.2401468177516045</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.24014681775160451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44320</v>
       </c>
       <c r="B85">
-        <v>1.40726813348946</v>
+        <v>1.4072681334894599</v>
       </c>
       <c r="C85">
         <v>1.605700095029239</v>
@@ -2093,13 +2146,13 @@
         <v>1.00456189380531</v>
       </c>
       <c r="E85">
-        <v>0.8112871443462911</v>
+        <v>0.81128714434629112</v>
       </c>
       <c r="F85">
-        <v>0.2494994036000414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.24949940360004139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44321</v>
       </c>
@@ -2113,13 +2166,13 @@
         <v>0.9770568525345622</v>
       </c>
       <c r="E86">
-        <v>0.8045372288135567</v>
+        <v>0.80453722881355672</v>
       </c>
       <c r="F86">
-        <v>0.2450152732808406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.24501527328084061</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44322</v>
       </c>
@@ -2130,36 +2183,36 @@
         <v>1.686342222379605</v>
       </c>
       <c r="D87">
-        <v>0.9850235562372185</v>
+        <v>0.98502355623721849</v>
       </c>
       <c r="E87">
-        <v>0.807088555800917</v>
+        <v>0.80708855580091698</v>
       </c>
       <c r="F87">
-        <v>0.2449098717487838</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.24490987174878379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44323</v>
       </c>
       <c r="B88">
-        <v>1.313219408009287</v>
+        <v>1.3132194080092869</v>
       </c>
       <c r="C88">
-        <v>1.507923530395138</v>
+        <v>1.5079235303951379</v>
       </c>
       <c r="D88">
-        <v>0.9436604112554114</v>
+        <v>0.94366041125541145</v>
       </c>
       <c r="E88">
         <v>0.8062363998231632</v>
       </c>
       <c r="F88">
-        <v>0.2670026680502245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.26700266805022449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44326</v>
       </c>
@@ -2167,39 +2220,39 @@
         <v>1.438710857537272</v>
       </c>
       <c r="C89">
-        <v>1.563259247041419</v>
+        <v>1.5632592470414191</v>
       </c>
       <c r="D89">
         <v>1.047682372246697</v>
       </c>
       <c r="E89">
-        <v>0.8223162456803442</v>
+        <v>0.82231624568034423</v>
       </c>
       <c r="F89">
-        <v>0.2624541198317435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.26245411983174349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44327</v>
       </c>
       <c r="B90">
-        <v>1.386439751900112</v>
+        <v>1.3864397519001119</v>
       </c>
       <c r="C90">
-        <v>1.607422743478263</v>
+        <v>1.6074227434782631</v>
       </c>
       <c r="D90">
-        <v>0.9882375707964595</v>
+        <v>0.98823757079645946</v>
       </c>
       <c r="E90">
-        <v>0.8382925952684273</v>
+        <v>0.83829259526842725</v>
       </c>
       <c r="F90">
-        <v>0.2890415737327184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.28904157373271838</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44328</v>
       </c>
@@ -2207,39 +2260,39 @@
         <v>1.459138976458545</v>
       </c>
       <c r="C91">
-        <v>1.694500348733237</v>
+        <v>1.6945003487332371</v>
       </c>
       <c r="D91">
-        <v>1.063786218818381</v>
+        <v>1.0637862188183811</v>
       </c>
       <c r="E91">
-        <v>0.8648461627866574</v>
+        <v>0.86484616278665738</v>
       </c>
       <c r="F91">
-        <v>0.3208389465042372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.32083894650423722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44329</v>
       </c>
       <c r="B92">
-        <v>1.431873277347531</v>
+        <v>1.4318732773475309</v>
       </c>
       <c r="C92">
         <v>1.771073268115942</v>
       </c>
       <c r="D92">
-        <v>1.201843459276018</v>
+        <v>1.2018434592760181</v>
       </c>
       <c r="E92">
-        <v>0.843940537221664</v>
+        <v>0.84394053722166396</v>
       </c>
       <c r="F92">
-        <v>0.307165691700426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.30716569170042601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44330</v>
       </c>
@@ -2250,16 +2303,16 @@
         <v>1.726492218439716</v>
       </c>
       <c r="D93">
-        <v>1.115762575630252</v>
+        <v>1.1157625756302521</v>
       </c>
       <c r="E93">
-        <v>0.7898688193211501</v>
+        <v>0.78986881932115005</v>
       </c>
       <c r="F93">
-        <v>0.2847405346277648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.28474053462776477</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44333</v>
       </c>
@@ -2267,19 +2320,19 @@
         <v>1.379128394129977</v>
       </c>
       <c r="C94">
-        <v>1.764575230555557</v>
+        <v>1.7645752305555571</v>
       </c>
       <c r="D94">
         <v>1.113890668049794</v>
       </c>
       <c r="E94">
-        <v>0.8009414475261061</v>
+        <v>0.80094144752610608</v>
       </c>
       <c r="F94">
-        <v>0.2886434822376477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.28864348223764769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44334</v>
       </c>
@@ -2290,21 +2343,21 @@
         <v>1.763973990014265</v>
       </c>
       <c r="D95">
-        <v>1.138806320675105</v>
+        <v>1.1388063206751049</v>
       </c>
       <c r="E95">
-        <v>0.8032518834697746</v>
+        <v>0.80325188346977461</v>
       </c>
       <c r="F95">
-        <v>0.3229336436590446</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.32293364365904459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44335</v>
       </c>
       <c r="B96">
-        <v>1.391240853988965</v>
+        <v>1.3912408539889649</v>
       </c>
       <c r="C96">
         <v>1.716010749658003</v>
@@ -2313,13 +2366,13 @@
         <v>1.114063506437768</v>
       </c>
       <c r="E96">
-        <v>0.7828932867432705</v>
+        <v>0.78289328674327052</v>
       </c>
       <c r="F96">
-        <v>0.2716519951338193</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0.27165199513381932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44336</v>
       </c>
@@ -2327,39 +2380,39 @@
         <v>1.334173819116137</v>
       </c>
       <c r="C97">
-        <v>1.70163776744186</v>
+        <v>1.7016377674418599</v>
       </c>
       <c r="D97">
         <v>1.111672782881002</v>
       </c>
       <c r="E97">
-        <v>0.810091724601178</v>
+        <v>0.81009172460117795</v>
       </c>
       <c r="F97">
-        <v>0.2689114888682739</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.26891148886827387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44337</v>
       </c>
       <c r="B98">
-        <v>1.313951014399999</v>
+        <v>1.3139510143999991</v>
       </c>
       <c r="C98">
         <v>1.610085243243244</v>
       </c>
       <c r="D98">
-        <v>0.9966268750000001</v>
+        <v>0.99662687500000013</v>
       </c>
       <c r="E98">
-        <v>0.7713657396723659</v>
+        <v>0.77136573967236588</v>
       </c>
       <c r="F98">
-        <v>0.2461993069082672</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.24619930690826719</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44340</v>
       </c>
@@ -2370,16 +2423,16 @@
         <v>1.587776337696335</v>
       </c>
       <c r="D99">
-        <v>1.002588321428571</v>
+        <v>1.0025883214285709</v>
       </c>
       <c r="E99">
-        <v>0.8013735148549451</v>
+        <v>0.80137351485494512</v>
       </c>
       <c r="F99">
-        <v>0.2465831135106941</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.24658311351069409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44341</v>
       </c>
@@ -2393,13 +2446,13 @@
         <v>1.157154556043956</v>
       </c>
       <c r="E100">
-        <v>0.754680425828048</v>
+        <v>0.75468042582804795</v>
       </c>
       <c r="F100">
-        <v>0.2538825284527517</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>0.25388252845275172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44342</v>
       </c>
@@ -2407,19 +2460,19 @@
         <v>1.522602814914163</v>
       </c>
       <c r="C101">
-        <v>1.872252460256412</v>
+        <v>1.8722524602564119</v>
       </c>
       <c r="D101">
         <v>1.203882591397849</v>
       </c>
       <c r="E101">
-        <v>0.745179632192279</v>
+        <v>0.74517963219227901</v>
       </c>
       <c r="F101">
         <v>0.239164111661711</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44343</v>
       </c>
@@ -2427,19 +2480,19 @@
         <v>1.692572293095963</v>
       </c>
       <c r="C102">
-        <v>2.050302131545336</v>
+        <v>2.0503021315453358</v>
       </c>
       <c r="D102">
-        <v>1.36248604494382</v>
+        <v>1.3624860449438201</v>
       </c>
       <c r="E102">
-        <v>0.7546340783418563</v>
+        <v>0.75463407834185625</v>
       </c>
       <c r="F102">
-        <v>0.3021376213540568</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.30213762135405681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44344</v>
       </c>
@@ -2447,24 +2500,24 @@
         <v>1.614126447345134</v>
       </c>
       <c r="C103">
-        <v>2.173963760467381</v>
+        <v>2.1739637604673812</v>
       </c>
       <c r="D103">
-        <v>1.243249157563025</v>
+        <v>1.2432491575630249</v>
       </c>
       <c r="E103">
-        <v>0.7551658988723832</v>
+        <v>0.75516589887238317</v>
       </c>
       <c r="F103">
         <v>0.2333255371749221</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44348</v>
       </c>
       <c r="B104">
-        <v>1.753694753367003</v>
+        <v>1.7536947533670031</v>
       </c>
       <c r="C104">
         <v>2.202304030981066</v>
@@ -2473,13 +2526,13 @@
         <v>1.533710531305905</v>
       </c>
       <c r="E104">
-        <v>0.7543169880749587</v>
+        <v>0.75431698807495873</v>
       </c>
       <c r="F104">
         <v>0.2493050782059954</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44349</v>
       </c>
@@ -2487,39 +2540,39 @@
         <v>1.922671447709591</v>
       </c>
       <c r="C105">
-        <v>2.21422232586558</v>
+        <v>2.2142223258655802</v>
       </c>
       <c r="D105">
         <v>1.937743159645233</v>
       </c>
       <c r="E105">
-        <v>0.7974741103645211</v>
+        <v>0.79747411036452109</v>
       </c>
       <c r="F105">
-        <v>0.2485045252909819</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.24850452529098191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44350</v>
       </c>
       <c r="B106">
-        <v>1.873019844299146</v>
+        <v>1.8730198442991459</v>
       </c>
       <c r="C106">
-        <v>2.227448410437236</v>
+        <v>2.2274484104372361</v>
       </c>
       <c r="D106">
         <v>2.051359503472221</v>
       </c>
       <c r="E106">
-        <v>0.8089816769308447</v>
+        <v>0.80898167693084466</v>
       </c>
       <c r="F106">
-        <v>0.2988782452252821</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>0.29887824522528211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44351</v>
       </c>
@@ -2527,19 +2580,19 @@
         <v>1.777548786185488</v>
       </c>
       <c r="C107">
-        <v>2.189998740213524</v>
+        <v>2.1899987402135239</v>
       </c>
       <c r="D107">
         <v>1.963765150442476</v>
       </c>
       <c r="E107">
-        <v>0.7588926973247062</v>
+        <v>0.75889269732470621</v>
       </c>
       <c r="F107">
         <v>0.2445924233844822</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44354</v>
       </c>
@@ -2547,59 +2600,59 @@
         <v>1.796213107751276</v>
       </c>
       <c r="C108">
-        <v>2.138897579190752</v>
+        <v>2.1388975791907519</v>
       </c>
       <c r="D108">
         <v>2.001897548696844</v>
       </c>
       <c r="E108">
-        <v>0.8050256739965082</v>
+        <v>0.80502567399650815</v>
       </c>
       <c r="F108">
-        <v>0.3039372761388301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>0.30393727613883009</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44355</v>
       </c>
       <c r="B109">
-        <v>1.837279143728224</v>
+        <v>1.8372791437282241</v>
       </c>
       <c r="C109">
-        <v>2.204967838461538</v>
+        <v>2.2049678384615379</v>
       </c>
       <c r="D109">
         <v>1.928564976130652</v>
       </c>
       <c r="E109">
-        <v>0.8106722283176609</v>
+        <v>0.81067222831766095</v>
       </c>
       <c r="F109">
         <v>0.3077352754919499</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44356</v>
       </c>
       <c r="B110">
-        <v>1.77044416172043</v>
+        <v>1.7704441617204301</v>
       </c>
       <c r="C110">
-        <v>2.241492879409349</v>
+        <v>2.2414928794093489</v>
       </c>
       <c r="D110">
         <v>1.776562948492461</v>
       </c>
       <c r="E110">
-        <v>0.81230505784107</v>
+        <v>0.81230505784106999</v>
       </c>
       <c r="F110">
-        <v>0.3013675594895013</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>0.30136755948950128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44357</v>
       </c>
@@ -2610,16 +2663,16 @@
         <v>2.289295403129656</v>
       </c>
       <c r="D111">
-        <v>1.614468032223417</v>
+        <v>1.6144680322234171</v>
       </c>
       <c r="E111">
         <v>0.7636458688350739</v>
       </c>
       <c r="F111">
-        <v>0.253225597833015</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>0.25322559783301501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44358</v>
       </c>
@@ -2627,19 +2680,19 @@
         <v>1.756859619012523</v>
       </c>
       <c r="C112">
-        <v>2.255821024104688</v>
+        <v>2.2558210241046881</v>
       </c>
       <c r="D112">
         <v>1.533581988584475</v>
       </c>
       <c r="E112">
-        <v>0.7456820939823016</v>
+        <v>0.74568209398230156</v>
       </c>
       <c r="F112">
-        <v>0.2371694379456332</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>0.23716943794563319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44361</v>
       </c>
@@ -2653,38 +2706,38 @@
         <v>1.518055882494004</v>
       </c>
       <c r="E113">
-        <v>0.7296543379602836</v>
+        <v>0.72965433796028356</v>
       </c>
       <c r="F113">
-        <v>0.249526056102836</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>0.24952605610283601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44362</v>
       </c>
       <c r="B114">
-        <v>1.702729334627331</v>
+        <v>1.7027293346273309</v>
       </c>
       <c r="C114">
-        <v>2.275118791265727</v>
+        <v>2.2751187912657271</v>
       </c>
       <c r="D114">
         <v>1.492732697115386</v>
       </c>
       <c r="E114">
-        <v>0.7671770527647254</v>
+        <v>0.76717705276472536</v>
       </c>
       <c r="F114">
-        <v>0.2578475893446482</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>0.25784758934464819</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44363</v>
       </c>
       <c r="B115">
-        <v>1.719624099350401</v>
+        <v>1.7196240993504011</v>
       </c>
       <c r="C115">
         <v>2.270639930477969</v>
@@ -2693,13 +2746,13 @@
         <v>1.479553745370372</v>
       </c>
       <c r="E115">
-        <v>0.7585685250270082</v>
+        <v>0.75856852502700822</v>
       </c>
       <c r="F115">
-        <v>0.2910516656239531</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>0.29105166562395313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44364</v>
       </c>
@@ -2713,13 +2766,13 @@
         <v>1.514121036281179</v>
       </c>
       <c r="E116">
-        <v>0.777114486717613</v>
+        <v>0.77711448671761296</v>
       </c>
       <c r="F116">
-        <v>0.3359359222579574</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>0.33593592225795738</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44365</v>
       </c>
@@ -2727,59 +2780,59 @@
         <v>1.642740642162581</v>
       </c>
       <c r="C117">
-        <v>2.328784667874393</v>
+        <v>2.3287846678743929</v>
       </c>
       <c r="D117">
-        <v>1.523267429771909</v>
+        <v>1.5232674297719091</v>
       </c>
       <c r="E117">
-        <v>0.7946653013983349</v>
+        <v>0.79466530139833491</v>
       </c>
       <c r="F117">
-        <v>0.3155031208752219</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0.31550312087522192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44368</v>
       </c>
       <c r="B118">
-        <v>1.683309364175566</v>
+        <v>1.6833093641755661</v>
       </c>
       <c r="C118">
-        <v>2.30511733572282</v>
+        <v>2.3051173357228198</v>
       </c>
       <c r="D118">
-        <v>1.456089306220096</v>
+        <v>1.4560893062200959</v>
       </c>
       <c r="E118">
         <v>0.7976877046223213</v>
       </c>
       <c r="F118">
-        <v>0.2952593239579804</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>0.29525932395798038</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44369</v>
       </c>
       <c r="B119">
-        <v>1.684656041869916</v>
+        <v>1.6846560418699159</v>
       </c>
       <c r="C119">
-        <v>2.221146412537316</v>
+        <v>2.2211464125373159</v>
       </c>
       <c r="D119">
         <v>1.511127797575758</v>
       </c>
       <c r="E119">
-        <v>0.7419918593141073</v>
+        <v>0.74199185931410727</v>
       </c>
       <c r="F119">
-        <v>0.2581009809233551</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>0.25810098092335509</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44370</v>
       </c>
@@ -2787,19 +2840,19 @@
         <v>1.694438179330068</v>
       </c>
       <c r="C120">
-        <v>2.060179189331771</v>
+        <v>2.0601791893317709</v>
       </c>
       <c r="D120">
         <v>1.436417741190763</v>
       </c>
       <c r="E120">
-        <v>0.8044857660797041</v>
+        <v>0.80448576607970412</v>
       </c>
       <c r="F120">
-        <v>0.2884011634333407</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>0.28840116343334071</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44371</v>
       </c>
@@ -2813,13 +2866,13 @@
         <v>1.435083731220655</v>
       </c>
       <c r="E121">
-        <v>0.7783176042561509</v>
+        <v>0.77831760425615093</v>
       </c>
       <c r="F121">
-        <v>0.2479751728286065</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>0.24797517282860651</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44372</v>
       </c>
@@ -2827,7 +2880,7 @@
         <v>1.612041921999998</v>
       </c>
       <c r="C122">
-        <v>1.946241656637168</v>
+        <v>1.9462416566371681</v>
       </c>
       <c r="D122">
         <v>1.273991632019114</v>
@@ -2839,7 +2892,7 @@
         <v>0.2826192391037794</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44375</v>
       </c>
@@ -2853,13 +2906,13 @@
         <v>1.26212310617284</v>
       </c>
       <c r="E123">
-        <v>0.7982807712715552</v>
+        <v>0.79828077127155517</v>
       </c>
       <c r="F123">
-        <v>0.2934986049477724</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>0.29349860494777241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44376</v>
       </c>
@@ -2867,39 +2920,39 @@
         <v>1.527219485367894</v>
       </c>
       <c r="C124">
-        <v>1.794504861793612</v>
+        <v>1.7945048617936119</v>
       </c>
       <c r="D124">
         <v>1.224527435582822</v>
       </c>
       <c r="E124">
-        <v>0.824191441192511</v>
+        <v>0.82419144119251098</v>
       </c>
       <c r="F124">
-        <v>0.3064517402240785</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>0.30645174022407851</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44377</v>
       </c>
       <c r="B125">
-        <v>1.509803485457654</v>
+        <v>1.5098034854576541</v>
       </c>
       <c r="C125">
         <v>1.718391598339718</v>
       </c>
       <c r="D125">
-        <v>1.232243090909089</v>
+        <v>1.2322430909090889</v>
       </c>
       <c r="E125">
-        <v>0.8782337535415892</v>
+        <v>0.87823375354158917</v>
       </c>
       <c r="F125">
-        <v>0.2852107755535672</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>0.28521077555356722</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44378</v>
       </c>
@@ -2910,16 +2963,16 @@
         <v>1.708395970041942</v>
       </c>
       <c r="D126">
-        <v>1.158955572296475</v>
+        <v>1.1589555722964751</v>
       </c>
       <c r="E126">
         <v>0.8535659898908825</v>
       </c>
       <c r="F126">
-        <v>0.235351509098649</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>0.23535150909864899</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44379</v>
       </c>
@@ -2927,19 +2980,19 @@
         <v>1.444282824248118</v>
       </c>
       <c r="C127">
-        <v>1.784652158720203</v>
+        <v>1.7846521587202031</v>
       </c>
       <c r="D127">
-        <v>1.141683070153061</v>
+        <v>1.1416830701530609</v>
       </c>
       <c r="E127">
-        <v>0.8148424860856522</v>
+        <v>0.81484248608565224</v>
       </c>
       <c r="F127">
         <v>0.2316289986198122</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44383</v>
       </c>
@@ -2947,19 +3000,19 @@
         <v>1.454654654296871</v>
       </c>
       <c r="C128">
-        <v>1.822965814131127</v>
+        <v>1.8229658141311269</v>
       </c>
       <c r="D128">
-        <v>1.16831605</v>
+        <v>1.1683160500000001</v>
       </c>
       <c r="E128">
-        <v>0.8657920815776152</v>
+        <v>0.86579208157761522</v>
       </c>
       <c r="F128">
-        <v>0.2514888923363329</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>0.25148889233633293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44384</v>
       </c>
@@ -2967,24 +3020,24 @@
         <v>1.474841667980296</v>
       </c>
       <c r="C129">
-        <v>1.836024491792927</v>
+        <v>1.8360244917929269</v>
       </c>
       <c r="D129">
         <v>1.17387033243968</v>
       </c>
       <c r="E129">
-        <v>0.8563062174899626</v>
+        <v>0.85630621748996261</v>
       </c>
       <c r="F129">
-        <v>0.2376181818672413</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>0.23761818186724129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44385</v>
       </c>
       <c r="B130">
-        <v>1.485592960078855</v>
+        <v>1.4855929600788551</v>
       </c>
       <c r="C130">
         <v>1.819849954045307</v>
@@ -2993,33 +3046,33 @@
         <v>1.169672391244869</v>
       </c>
       <c r="E130">
-        <v>0.8936177061763644</v>
+        <v>0.89361770617636438</v>
       </c>
       <c r="F130">
         <v>0.2485364393256014</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44386</v>
       </c>
       <c r="B131">
-        <v>1.430369059979837</v>
+        <v>1.4303690599798371</v>
       </c>
       <c r="C131">
         <v>1.76061278146102</v>
       </c>
       <c r="D131">
-        <v>1.110441901685394</v>
+        <v>1.1104419016853939</v>
       </c>
       <c r="E131">
-        <v>0.8013663992388558</v>
+        <v>0.80136639923885578</v>
       </c>
       <c r="F131">
-        <v>0.2404540322239826</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>0.24045403222398259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44389</v>
       </c>
@@ -3027,24 +3080,24 @@
         <v>1.426700950844858</v>
       </c>
       <c r="C132">
-        <v>1.814507803848543</v>
+        <v>1.8145078038485429</v>
       </c>
       <c r="D132">
         <v>1.098876286558345</v>
       </c>
       <c r="E132">
-        <v>0.8324393018521886</v>
+        <v>0.83243930185218862</v>
       </c>
       <c r="F132">
         <v>0.2449591446687101</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44390</v>
       </c>
       <c r="B133">
-        <v>1.412634949074073</v>
+        <v>1.4126349490740731</v>
       </c>
       <c r="C133">
         <v>1.848713224565756</v>
@@ -3053,33 +3106,33 @@
         <v>1.112478258160239</v>
       </c>
       <c r="E133">
-        <v>0.8337240682264663</v>
+        <v>0.83372406822646628</v>
       </c>
       <c r="F133">
-        <v>0.2518978044628963</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>0.25189780446289628</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44391</v>
       </c>
       <c r="B134">
-        <v>1.428896219228739</v>
+        <v>1.4288962192287391</v>
       </c>
       <c r="C134">
-        <v>2.00543434689793</v>
+        <v>2.0054343468979301</v>
       </c>
       <c r="D134">
         <v>1.124650196992482</v>
       </c>
       <c r="E134">
-        <v>0.8457648369525858</v>
+        <v>0.84576483695258575</v>
       </c>
       <c r="F134">
         <v>0.2495385396792551</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44392</v>
       </c>
@@ -3087,19 +3140,19 @@
         <v>1.45790447997864</v>
       </c>
       <c r="C135">
-        <v>1.96822139162234</v>
+        <v>1.9682213916223401</v>
       </c>
       <c r="D135">
         <v>1.143092254437871</v>
       </c>
       <c r="E135">
-        <v>0.7996391308024482</v>
+        <v>0.79963913080244819</v>
       </c>
       <c r="F135">
-        <v>0.2553703273254607</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>0.25537032732546072</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44393</v>
       </c>
@@ -3107,24 +3160,24 @@
         <v>1.376365078528281</v>
       </c>
       <c r="C136">
-        <v>1.919628528897852</v>
+        <v>1.9196285288978521</v>
       </c>
       <c r="D136">
         <v>1.105830171945702</v>
       </c>
       <c r="E136">
-        <v>0.7852673820314042</v>
+        <v>0.78526738203140423</v>
       </c>
       <c r="F136">
         <v>0.2446296358193269</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44396</v>
       </c>
       <c r="B137">
-        <v>1.414180947277934</v>
+        <v>1.4141809472779341</v>
       </c>
       <c r="C137">
         <v>1.928371306052268</v>
@@ -3133,13 +3186,13 @@
         <v>1.144424697151426</v>
       </c>
       <c r="E137">
-        <v>0.7891526907274796</v>
+        <v>0.78915269072747962</v>
       </c>
       <c r="F137">
         <v>0.2567185447625166</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44397</v>
       </c>
@@ -3153,13 +3206,13 @@
         <v>1.131649399068323</v>
       </c>
       <c r="E138">
-        <v>0.8078420674090303</v>
+        <v>0.80784206740903031</v>
       </c>
       <c r="F138">
-        <v>0.2869807938709673</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>0.28698079387096731</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44398</v>
       </c>
@@ -3170,21 +3223,21 @@
         <v>1.864152076335875</v>
       </c>
       <c r="D139">
-        <v>1.162001484709481</v>
+        <v>1.1620014847094811</v>
       </c>
       <c r="E139">
-        <v>0.7856784414768289</v>
+        <v>0.78567844147682886</v>
       </c>
       <c r="F139">
-        <v>0.2428496709438885</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>0.24284967094388851</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44399</v>
       </c>
       <c r="B140">
-        <v>1.318103879999999</v>
+        <v>1.3181038799999989</v>
       </c>
       <c r="C140">
         <v>1.820688637650389</v>
@@ -3193,33 +3246,33 @@
         <v>1.125320020289855</v>
       </c>
       <c r="E140">
-        <v>0.774628862089436</v>
+        <v>0.77462886208943604</v>
       </c>
       <c r="F140">
-        <v>0.2562763286534778</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>0.25627632865347783</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>44400</v>
       </c>
       <c r="B141">
-        <v>1.26060768705234</v>
+        <v>1.2606076870523399</v>
       </c>
       <c r="C141">
         <v>1.793602951411686</v>
       </c>
       <c r="D141">
-        <v>1.101868525399129</v>
+        <v>1.1018685253991289</v>
       </c>
       <c r="E141">
-        <v>0.7610516311589878</v>
+        <v>0.76105163115898777</v>
       </c>
       <c r="F141">
-        <v>0.2361944311000096</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>0.23619443110000959</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>44403</v>
       </c>
@@ -3227,24 +3280,24 @@
         <v>1.261254205316743</v>
       </c>
       <c r="C142">
-        <v>1.765459678082194</v>
+        <v>1.7654596780821941</v>
       </c>
       <c r="D142">
         <v>1.187671977175462</v>
       </c>
       <c r="E142">
-        <v>0.8002341100825107</v>
+        <v>0.80023411008251066</v>
       </c>
       <c r="F142">
-        <v>0.2419251239259743</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>0.24192512392597429</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>44404</v>
       </c>
       <c r="B143">
-        <v>1.288955844837108</v>
+        <v>1.2889558448371079</v>
       </c>
       <c r="C143">
         <v>1.730062631436315</v>
@@ -3253,13 +3306,13 @@
         <v>1.216416724087592</v>
       </c>
       <c r="E143">
-        <v>0.7462296394250518</v>
+        <v>0.74622963942505183</v>
       </c>
       <c r="F143">
-        <v>0.2529668120004261</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>0.25296681200042609</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>44405</v>
       </c>
@@ -3270,21 +3323,21 @@
         <v>1.708866748811948</v>
       </c>
       <c r="D144">
-        <v>1.277845382660688</v>
+        <v>1.2778453826606879</v>
       </c>
       <c r="E144">
-        <v>0.7726970535899012</v>
+        <v>0.77269705358990115</v>
       </c>
       <c r="F144">
-        <v>0.2835780083315284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>0.28357800833152841</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>44406</v>
       </c>
       <c r="B145">
-        <v>1.305116241166573</v>
+        <v>1.3051162411665731</v>
       </c>
       <c r="C145">
         <v>1.676995537935754</v>
@@ -3293,18 +3346,18 @@
         <v>1.196109512820513</v>
       </c>
       <c r="E145">
-        <v>0.7497066683097127</v>
+        <v>0.74970666830971266</v>
       </c>
       <c r="F145">
         <v>0.282320364164247</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>44407</v>
       </c>
       <c r="B146">
-        <v>1.301840566450089</v>
+        <v>1.3018405664500889</v>
       </c>
       <c r="C146">
         <v>1.65640564102564</v>
@@ -3313,13 +3366,13 @@
         <v>1.19202629985444</v>
       </c>
       <c r="E146">
-        <v>0.7210152502624377</v>
+        <v>0.72101525026243773</v>
       </c>
       <c r="F146">
-        <v>0.2373622249262541</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>0.23736222492625411</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>44410</v>
       </c>
@@ -3333,38 +3386,38 @@
         <v>1.148397025525526</v>
       </c>
       <c r="E147">
-        <v>0.8106967076526228</v>
+        <v>0.81069670765262281</v>
       </c>
       <c r="F147">
         <v>0.2501295920042082</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>44411</v>
       </c>
       <c r="B148">
-        <v>1.379194121734297</v>
+        <v>1.3791941217342969</v>
       </c>
       <c r="C148">
         <v>1.675824794419972</v>
       </c>
       <c r="D148">
-        <v>1.17635696587537</v>
+        <v>1.1763569658753701</v>
       </c>
       <c r="E148">
-        <v>0.7775018495465766</v>
+        <v>0.77750184954657664</v>
       </c>
       <c r="F148">
         <v>0.2454063053949912</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>44412</v>
       </c>
       <c r="B149">
-        <v>1.386588329398542</v>
+        <v>1.3865883293985419</v>
       </c>
       <c r="C149">
         <v>1.774071038719284</v>
@@ -3373,58 +3426,58 @@
         <v>1.206151425563909</v>
       </c>
       <c r="E149">
-        <v>0.7786858250155317</v>
+        <v>0.77868582501553174</v>
       </c>
       <c r="F149">
-        <v>0.2876068483097985</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>0.28760684830979849</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>44413</v>
       </c>
       <c r="B150">
-        <v>1.398941581789305</v>
+        <v>1.3989415817893049</v>
       </c>
       <c r="C150">
-        <v>1.714637049851191</v>
+        <v>1.7146370498511909</v>
       </c>
       <c r="D150">
         <v>1.206523825072886</v>
       </c>
       <c r="E150">
-        <v>0.7420201621069816</v>
+        <v>0.74202016210698163</v>
       </c>
       <c r="F150">
-        <v>0.2405830044623885</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>0.24058300446238851</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>44414</v>
       </c>
       <c r="B151">
-        <v>1.3630670359375</v>
+        <v>1.3630670359374999</v>
       </c>
       <c r="C151">
         <v>1.676339248719827</v>
       </c>
       <c r="D151">
-        <v>1.161147447214076</v>
+        <v>1.1611474472140759</v>
       </c>
       <c r="E151">
-        <v>0.7139295665634666</v>
+        <v>0.71392956656346662</v>
       </c>
       <c r="F151">
-        <v>0.2476641933077808</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>0.24766419330778081</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>44417</v>
       </c>
       <c r="B152">
-        <v>1.398955412809474</v>
+        <v>1.3989554128094741</v>
       </c>
       <c r="C152">
         <v>1.766596100306278</v>
@@ -3433,13 +3486,13 @@
         <v>1.189214130044842</v>
       </c>
       <c r="E152">
-        <v>0.7370256936369156</v>
+        <v>0.73702569363691561</v>
       </c>
       <c r="F152">
-        <v>0.2714347844119853</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>0.27143478441198532</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>44418</v>
       </c>
@@ -3453,38 +3506,38 @@
         <v>1.153101498484848</v>
       </c>
       <c r="E153">
-        <v>0.6968139509176257</v>
+        <v>0.69681395091762566</v>
       </c>
       <c r="F153">
         <v>0.2417869658718014</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>44419</v>
       </c>
       <c r="B154">
-        <v>1.36765300794101</v>
+        <v>1.3676530079410101</v>
       </c>
       <c r="C154">
-        <v>1.571060575663027</v>
+        <v>1.5710605756630269</v>
       </c>
       <c r="D154">
         <v>1.168572744292236</v>
       </c>
       <c r="E154">
-        <v>0.7601533919587626</v>
+        <v>0.76015339195876264</v>
       </c>
       <c r="F154">
         <v>0.2393470423487177</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>44420</v>
       </c>
       <c r="B155">
-        <v>1.349752832971799</v>
+        <v>1.3497528329717989</v>
       </c>
       <c r="C155">
         <v>1.54398472136223</v>
@@ -3493,33 +3546,33 @@
         <v>1.107475324850298</v>
       </c>
       <c r="E155">
-        <v>0.7699201193307796</v>
+        <v>0.76992011933077964</v>
       </c>
       <c r="F155">
-        <v>0.2432055353103006</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>0.24320553531030059</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>44421</v>
       </c>
       <c r="B156">
-        <v>1.28489442247191</v>
+        <v>1.2848944224719101</v>
       </c>
       <c r="C156">
-        <v>1.466558965570005</v>
+        <v>1.4665589655700051</v>
       </c>
       <c r="D156">
-        <v>1.08733193712575</v>
+        <v>1.0873319371257499</v>
       </c>
       <c r="E156">
-        <v>0.6979017422637609</v>
+        <v>0.69790174226376089</v>
       </c>
       <c r="F156">
-        <v>0.2290005316278075</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>0.22900053162780751</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44424</v>
       </c>
@@ -3527,19 +3580,19 @@
         <v>1.296594125789774</v>
       </c>
       <c r="C157">
-        <v>1.520252085866261</v>
+        <v>1.5202520858662609</v>
       </c>
       <c r="D157">
         <v>1.120740221884498</v>
       </c>
       <c r="E157">
-        <v>0.7392078567370131</v>
+        <v>0.73920785673701306</v>
       </c>
       <c r="F157">
-        <v>0.2433701080250182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>0.24337010802501821</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>44425</v>
       </c>
@@ -3547,59 +3600,59 @@
         <v>1.316772733695651</v>
       </c>
       <c r="C158">
-        <v>1.4833979152</v>
+        <v>1.4833979152000001</v>
       </c>
       <c r="D158">
         <v>1.175216658423494</v>
       </c>
       <c r="E158">
-        <v>0.7851211742582536</v>
+        <v>0.78512117425825356</v>
       </c>
       <c r="F158">
-        <v>0.2530472948451473</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>0.25304729484514732</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>44426</v>
       </c>
       <c r="B159">
-        <v>1.313254823363431</v>
+        <v>1.3132548233634309</v>
       </c>
       <c r="C159">
-        <v>1.512697156128025</v>
+        <v>1.5126971561280249</v>
       </c>
       <c r="D159">
         <v>1.145899943307086</v>
       </c>
       <c r="E159">
-        <v>0.7363636771291061</v>
+        <v>0.73636367712910611</v>
       </c>
       <c r="F159">
-        <v>0.3048796276439785</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>0.30487962764397852</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>44427</v>
       </c>
       <c r="B160">
-        <v>1.301844669185105</v>
+        <v>1.3018446691851051</v>
       </c>
       <c r="C160">
-        <v>1.511900546574288</v>
+        <v>1.5119005465742881</v>
       </c>
       <c r="D160">
-        <v>1.170443758672702</v>
+        <v>1.1704437586727019</v>
       </c>
       <c r="E160">
-        <v>0.7324959757324019</v>
+        <v>0.73249597573240188</v>
       </c>
       <c r="F160">
-        <v>0.2719741612800681</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>0.27197416128006813</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>44428</v>
       </c>
@@ -3607,19 +3660,19 @@
         <v>1.280096732895458</v>
       </c>
       <c r="C161">
-        <v>1.479428574886532</v>
+        <v>1.4794285748865319</v>
       </c>
       <c r="D161">
         <v>1.113642085758042</v>
       </c>
       <c r="E161">
-        <v>0.7092220101032276</v>
+        <v>0.70922201010322761</v>
       </c>
       <c r="F161">
-        <v>0.2781432799273187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>0.27814327992731869</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>44431</v>
       </c>
@@ -3633,13 +3686,13 @@
         <v>1.086224564954682</v>
       </c>
       <c r="E162">
-        <v>0.7698708749460939</v>
+        <v>0.76987087494609385</v>
       </c>
       <c r="F162">
-        <v>0.2454447384238654</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>0.24544473842386541</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>44432</v>
       </c>
@@ -3647,30 +3700,30 @@
         <v>1.522973474687316</v>
       </c>
       <c r="C163">
-        <v>1.70814074231089</v>
+        <v>1.7081407423108901</v>
       </c>
       <c r="D163">
         <v>1.419554911901084</v>
       </c>
       <c r="E163">
-        <v>0.7276119312827218</v>
+        <v>0.72761193128272184</v>
       </c>
       <c r="F163">
-        <v>0.2542962550753108</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>0.25429625507531078</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>44433</v>
       </c>
       <c r="B164">
-        <v>1.561578494258873</v>
+        <v>1.5615784942588731</v>
       </c>
       <c r="C164">
         <v>1.682496816485227</v>
       </c>
       <c r="D164">
-        <v>1.217401250351619</v>
+        <v>1.2174012503516189</v>
       </c>
       <c r="E164">
         <v>0.7683811595104747</v>
@@ -3679,27 +3732,27 @@
         <v>0.298528617081387</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>44434</v>
       </c>
       <c r="B165">
-        <v>1.465783008073202</v>
+        <v>1.4657830080732019</v>
       </c>
       <c r="C165">
         <v>1.662852839121191</v>
       </c>
       <c r="D165">
-        <v>1.275218329166666</v>
+        <v>1.2752183291666661</v>
       </c>
       <c r="E165">
-        <v>0.7386542590727906</v>
+        <v>0.73865425907279059</v>
       </c>
       <c r="F165">
-        <v>0.3053654862799972</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>0.30536548627999721</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>44435</v>
       </c>
@@ -3710,41 +3763,41 @@
         <v>1.577254429098965</v>
       </c>
       <c r="D166">
-        <v>1.238843699404761</v>
+        <v>1.2388436994047609</v>
       </c>
       <c r="E166">
-        <v>0.6923318490438675</v>
+        <v>0.69233184904386746</v>
       </c>
       <c r="F166">
-        <v>0.2422226410461389</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>0.24222264104613889</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>44438</v>
       </c>
       <c r="B167">
-        <v>1.442126986965588</v>
+        <v>1.4421269869655879</v>
       </c>
       <c r="C167">
-        <v>1.617370700729929</v>
+        <v>1.6173707007299289</v>
       </c>
       <c r="D167">
         <v>1.293491440170941</v>
       </c>
       <c r="E167">
-        <v>0.6966682183454063</v>
+        <v>0.69666821834540626</v>
       </c>
       <c r="F167">
         <v>0.2459300599115864</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>44439</v>
       </c>
       <c r="B168">
-        <v>1.427613690489589</v>
+        <v>1.4276136904895891</v>
       </c>
       <c r="C168">
         <v>1.614110794004614</v>
@@ -3753,13 +3806,13 @@
         <v>1.262353688721805</v>
       </c>
       <c r="E168">
-        <v>0.6958639460062466</v>
+        <v>0.69586394600624657</v>
       </c>
       <c r="F168">
         <v>0.3176675426493285</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>44440</v>
       </c>
@@ -3767,19 +3820,19 @@
         <v>1.436877201334817</v>
       </c>
       <c r="C169">
-        <v>1.640185874554524</v>
+        <v>1.6401858745545239</v>
       </c>
       <c r="D169">
         <v>1.25896568621701</v>
       </c>
       <c r="E169">
-        <v>0.7094723357583769</v>
+        <v>0.70947233575837687</v>
       </c>
       <c r="F169">
-        <v>0.244782473889703</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>0.24478247388970301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>44441</v>
       </c>
@@ -3793,13 +3846,13 @@
         <v>1.213858119834712</v>
       </c>
       <c r="E170">
-        <v>0.6992759999999973</v>
+        <v>0.69927599999999734</v>
       </c>
       <c r="F170">
-        <v>0.2486368168369152</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>0.24863681683691519</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>44442</v>
       </c>
@@ -3807,19 +3860,19 @@
         <v>1.331643684210525</v>
       </c>
       <c r="C171">
-        <v>1.531910141141141</v>
+        <v>1.5319101411411411</v>
       </c>
       <c r="D171">
         <v>1.2039726629681</v>
       </c>
       <c r="E171">
-        <v>0.6793457972370762</v>
+        <v>0.67934579723707622</v>
       </c>
       <c r="F171">
-        <v>0.2628641875482101</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>0.26286418754821012</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>44446</v>
       </c>
@@ -3833,38 +3886,38 @@
         <v>1.191849185878961</v>
       </c>
       <c r="E172">
-        <v>0.7072244712364995</v>
+        <v>0.70722447123649945</v>
       </c>
       <c r="F172">
-        <v>0.3085802964098077</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>0.30858029640980772</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>44447</v>
       </c>
       <c r="B173">
-        <v>1.431567384411455</v>
+        <v>1.4315673844114549</v>
       </c>
       <c r="C173">
         <v>1.561893665615143</v>
       </c>
       <c r="D173">
-        <v>1.170412697289157</v>
+        <v>1.1704126972891571</v>
       </c>
       <c r="E173">
-        <v>0.7787782184135371</v>
+        <v>0.77877821841353712</v>
       </c>
       <c r="F173">
         <v>0.251792756231074</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>44448</v>
       </c>
       <c r="B174">
-        <v>1.294612785492229</v>
+        <v>1.2946127854922289</v>
       </c>
       <c r="C174">
         <v>1.55947453343582</v>
@@ -3876,10 +3929,10 @@
         <v>0.7483375769147762</v>
       </c>
       <c r="F174">
-        <v>0.2652210073165248</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>0.26522100731652481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>44449</v>
       </c>
@@ -3887,19 +3940,19 @@
         <v>1.260091016471838</v>
       </c>
       <c r="C175">
-        <v>1.47673395601173</v>
+        <v>1.4767339560117301</v>
       </c>
       <c r="D175">
         <v>1.144891788235294</v>
       </c>
       <c r="E175">
-        <v>0.6990774827429597</v>
+        <v>0.69907748274295967</v>
       </c>
       <c r="F175">
-        <v>0.2934845857508067</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>0.29348458575080671</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>44452</v>
       </c>
@@ -3907,24 +3960,24 @@
         <v>1.234675226289518</v>
       </c>
       <c r="C176">
-        <v>1.468247086680763</v>
+        <v>1.4682470866807631</v>
       </c>
       <c r="D176">
-        <v>1.116362211077843</v>
+        <v>1.1163622110778431</v>
       </c>
       <c r="E176">
-        <v>0.7085050938049205</v>
+        <v>0.70850509380492055</v>
       </c>
       <c r="F176">
-        <v>0.2646526833950046</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>0.26465268339500458</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>44453</v>
       </c>
       <c r="B177">
-        <v>1.215503701526285</v>
+        <v>1.2155037015262851</v>
       </c>
       <c r="C177">
         <v>1.440537658781361</v>
@@ -3933,13 +3986,13 @@
         <v>1.128608224887556</v>
       </c>
       <c r="E177">
-        <v>0.7411429571270726</v>
+        <v>0.74114295712707257</v>
       </c>
       <c r="F177">
-        <v>0.2671255079904806</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>0.26712550799048063</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>44454</v>
       </c>
@@ -3953,33 +4006,33 @@
         <v>1.128023362406015</v>
       </c>
       <c r="E178">
-        <v>0.7234096970165741</v>
+        <v>0.72340969701657409</v>
       </c>
       <c r="F178">
-        <v>0.2579549279353167</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>0.25795492793531671</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>44455</v>
       </c>
       <c r="B179">
-        <v>1.205282264458171</v>
+        <v>1.2052822644581711</v>
       </c>
       <c r="C179">
-        <v>1.40698076845152</v>
+        <v>1.4069807684515201</v>
       </c>
       <c r="D179">
         <v>1.110637899835796</v>
       </c>
       <c r="E179">
-        <v>0.6991754902561849</v>
+        <v>0.69917549025618486</v>
       </c>
       <c r="F179">
-        <v>0.2676870724422074</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>0.26768707244220741</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>44456</v>
       </c>
@@ -3987,19 +4040,19 @@
         <v>1.209520939820024</v>
       </c>
       <c r="C180">
-        <v>1.372917667990469</v>
+        <v>1.3729176679904691</v>
       </c>
       <c r="D180">
-        <v>1.11584421147541</v>
+        <v>1.1158442114754099</v>
       </c>
       <c r="E180">
-        <v>0.7058462420554429</v>
+        <v>0.70584624205544289</v>
       </c>
       <c r="F180">
         <v>0.311284179192648</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>44459</v>
       </c>
@@ -4007,19 +4060,19 @@
         <v>1.278577452159652</v>
       </c>
       <c r="C181">
-        <v>1.475719217492261</v>
+        <v>1.4757192174922611</v>
       </c>
       <c r="D181">
-        <v>1.162471377599999</v>
+        <v>1.1624713775999991</v>
       </c>
       <c r="E181">
-        <v>0.6764823225578118</v>
+        <v>0.67648232255781182</v>
       </c>
       <c r="F181">
-        <v>0.3313628894427825</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>0.33136288944278253</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>44460</v>
       </c>
@@ -4027,19 +4080,19 @@
         <v>1.216006629207073</v>
       </c>
       <c r="C182">
-        <v>1.444251846035412</v>
+        <v>1.4442518460354119</v>
       </c>
       <c r="D182">
         <v>1.182739665086888</v>
       </c>
       <c r="E182">
-        <v>0.7425484105709205</v>
+        <v>0.74254841057092047</v>
       </c>
       <c r="F182">
-        <v>0.350565260375757</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>0.35056526037575703</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>44461</v>
       </c>
@@ -4053,13 +4106,13 @@
         <v>1.208597620689656</v>
       </c>
       <c r="E183">
-        <v>0.6766458017009834</v>
+        <v>0.67664580170098343</v>
       </c>
       <c r="F183">
-        <v>0.2707723685907436</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>0.27077236859074361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>44462</v>
       </c>
@@ -4073,113 +4126,113 @@
         <v>1.071049217948717</v>
       </c>
       <c r="E184">
-        <v>0.6960477059207653</v>
+        <v>0.69604770592076526</v>
       </c>
       <c r="F184">
-        <v>0.2700076518185539</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>0.27000765181855391</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>44463</v>
       </c>
       <c r="B185">
-        <v>1.135851319893899</v>
+        <v>1.1358513198938991</v>
       </c>
       <c r="C185">
         <v>1.301135563593004</v>
       </c>
       <c r="D185">
-        <v>1.012712749611197</v>
+        <v>1.0127127496111969</v>
       </c>
       <c r="E185">
-        <v>0.6625725395150434</v>
+        <v>0.66257253951504336</v>
       </c>
       <c r="F185">
-        <v>0.2986675887155102</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>0.29866758871551019</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>44466</v>
       </c>
       <c r="B186">
-        <v>1.142850179104476</v>
+        <v>1.1428501791044761</v>
       </c>
       <c r="C186">
         <v>1.306227348178137</v>
       </c>
       <c r="D186">
-        <v>1.010628301223241</v>
+        <v>1.0106283012232411</v>
       </c>
       <c r="E186">
-        <v>0.7684730612819394</v>
+        <v>0.76847306128193937</v>
       </c>
       <c r="F186">
-        <v>0.2731834182548679</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>0.27318341825486792</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>44467</v>
       </c>
       <c r="B187">
-        <v>1.164538731454858</v>
+        <v>1.1645387314548581</v>
       </c>
       <c r="C187">
-        <v>1.33696755546624</v>
+        <v>1.3369675554662399</v>
       </c>
       <c r="D187">
-        <v>1.024827855118109</v>
+        <v>1.0248278551181089</v>
       </c>
       <c r="E187">
-        <v>0.7972781566265049</v>
+        <v>0.79727815662650492</v>
       </c>
       <c r="F187">
-        <v>0.3043843718933134</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>0.30438437189331341</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>44468</v>
       </c>
       <c r="B188">
-        <v>1.184996288688804</v>
+        <v>1.1849962886888039</v>
       </c>
       <c r="C188">
-        <v>1.323506127483444</v>
+        <v>1.3235061274834441</v>
       </c>
       <c r="D188">
         <v>1.042795996666666</v>
       </c>
       <c r="E188">
-        <v>0.7540095638390902</v>
+        <v>0.75400956383909024</v>
       </c>
       <c r="F188">
         <v>0.2881139035190925</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>44469</v>
       </c>
       <c r="B189">
-        <v>1.241833368186874</v>
+        <v>1.2418333681868741</v>
       </c>
       <c r="C189">
-        <v>1.447204748977924</v>
+        <v>1.4472047489779241</v>
       </c>
       <c r="D189">
         <v>1.093999052469137</v>
       </c>
       <c r="E189">
-        <v>0.8249318083937598</v>
+        <v>0.82493180839375979</v>
       </c>
       <c r="F189">
-        <v>0.3293467240747118</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>0.32934672407471183</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>44470</v>
       </c>
@@ -4187,99 +4240,99 @@
         <v>1.202510219701163</v>
       </c>
       <c r="C190">
-        <v>1.331513717647061</v>
+        <v>1.3315137176470611</v>
       </c>
       <c r="D190">
         <v>0.9913501993569126</v>
       </c>
       <c r="E190">
-        <v>0.7262600798411988</v>
+        <v>0.72626007984119878</v>
       </c>
       <c r="F190">
-        <v>0.2551915380661737</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>0.25519153806617367</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>44473</v>
       </c>
       <c r="B191">
-        <v>1.211205435169728</v>
+        <v>1.2112054351697279</v>
       </c>
       <c r="C191">
-        <v>1.379265580216125</v>
+        <v>1.3792655802161251</v>
       </c>
       <c r="D191">
-        <v>1.094590649371069</v>
+        <v>1.0945906493710691</v>
       </c>
       <c r="E191">
-        <v>0.7520504380704031</v>
+        <v>0.75205043807040306</v>
       </c>
       <c r="F191">
-        <v>0.3016140311825637</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>0.30161403118256369</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>44474</v>
       </c>
       <c r="B192">
-        <v>1.181868376</v>
+        <v>1.1818683759999999</v>
       </c>
       <c r="C192">
-        <v>1.327823311531842</v>
+        <v>1.3278233115318421</v>
       </c>
       <c r="D192">
-        <v>1.06819045482389</v>
+        <v>1.0681904548238901</v>
       </c>
       <c r="E192">
-        <v>0.8192085096341163</v>
+        <v>0.81920850963411629</v>
       </c>
       <c r="F192">
-        <v>0.3096266476463707</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>0.30962664764637071</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>44475</v>
       </c>
       <c r="B193">
-        <v>1.197045567614626</v>
+        <v>1.1970455676146261</v>
       </c>
       <c r="C193">
-        <v>1.347645488695652</v>
+        <v>1.3476454886956519</v>
       </c>
       <c r="D193">
         <v>1.117379210200927</v>
       </c>
       <c r="E193">
-        <v>0.7938564855810004</v>
+        <v>0.79385648558100042</v>
       </c>
       <c r="F193">
-        <v>0.2980257422493036</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>0.29802574224930362</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>44476</v>
       </c>
       <c r="B194">
-        <v>1.163751646092866</v>
+        <v>1.1637516460928661</v>
       </c>
       <c r="C194">
-        <v>1.299200113013698</v>
+        <v>1.2992001130136981</v>
       </c>
       <c r="D194">
         <v>1.045552977134145</v>
       </c>
       <c r="E194">
-        <v>0.7482564538461545</v>
+        <v>0.74825645384615447</v>
       </c>
       <c r="F194">
-        <v>0.2631075709304856</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>0.26310757093048559</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>44477</v>
       </c>
@@ -4287,59 +4340,59 @@
         <v>1.134297994696523</v>
       </c>
       <c r="C195">
-        <v>1.264349541958041</v>
+        <v>1.2643495419580411</v>
       </c>
       <c r="D195">
-        <v>1.016371264475742</v>
+        <v>1.0163712644757421</v>
       </c>
       <c r="E195">
-        <v>0.7703640049388022</v>
+        <v>0.77036400493880219</v>
       </c>
       <c r="F195">
-        <v>0.2851369542414275</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>0.28513695424142749</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>44480</v>
       </c>
       <c r="B196">
-        <v>1.132098425948595</v>
+        <v>1.1320984259485951</v>
       </c>
       <c r="C196">
-        <v>1.269751878354204</v>
+        <v>1.2697518783542041</v>
       </c>
       <c r="D196">
         <v>1.066946777434312</v>
       </c>
       <c r="E196">
-        <v>0.8075063160145383</v>
+        <v>0.80750631601453826</v>
       </c>
       <c r="F196">
-        <v>0.3037275775993052</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>0.30372757759930519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>44481</v>
       </c>
       <c r="B197">
-        <v>1.134569996956787</v>
+        <v>1.1345699969567871</v>
       </c>
       <c r="C197">
-        <v>1.249792607367474</v>
+        <v>1.2497926073674741</v>
       </c>
       <c r="D197">
-        <v>1.043706607936509</v>
+        <v>1.0437066079365089</v>
       </c>
       <c r="E197">
-        <v>0.8183996756467847</v>
+        <v>0.81839967564678473</v>
       </c>
       <c r="F197">
-        <v>0.3206732445759353</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>0.32067324457593532</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>44482</v>
       </c>
@@ -4347,39 +4400,39 @@
         <v>1.140992473749227</v>
       </c>
       <c r="C198">
-        <v>1.242106335149863</v>
+        <v>1.2421063351498629</v>
       </c>
       <c r="D198">
-        <v>1.051521671009772</v>
+        <v>1.0515216710097719</v>
       </c>
       <c r="E198">
-        <v>0.7348460065139283</v>
+        <v>0.73484600651392828</v>
       </c>
       <c r="F198">
         <v>0.2548956589958164</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>44483</v>
       </c>
       <c r="B199">
-        <v>1.104039738636362</v>
+        <v>1.1040397386363621</v>
       </c>
       <c r="C199">
         <v>1.228451443655721</v>
       </c>
       <c r="D199">
-        <v>1.063129792109257</v>
+        <v>1.0631297921092571</v>
       </c>
       <c r="E199">
-        <v>0.7303217245753134</v>
+        <v>0.73032172457531341</v>
       </c>
       <c r="F199">
-        <v>0.2578913473185772</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>0.25789134731857721</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>44484</v>
       </c>
@@ -4393,13 +4446,13 @@
         <v>1.019742007598784</v>
       </c>
       <c r="E200">
-        <v>0.7120558899307863</v>
+        <v>0.71205588993078628</v>
       </c>
       <c r="F200">
-        <v>0.268083826147577</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>0.26808382614757698</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>44487</v>
       </c>
@@ -4410,21 +4463,21 @@
         <v>1.210141613861385</v>
       </c>
       <c r="D201">
-        <v>0.9846473833333331</v>
+        <v>0.98464738333333313</v>
       </c>
       <c r="E201">
-        <v>0.8058795117136665</v>
+        <v>0.80587951171366645</v>
       </c>
       <c r="F201">
-        <v>0.2927466991344361</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>0.29274669913443607</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>44488</v>
       </c>
       <c r="B202">
-        <v>1.086743075812275</v>
+        <v>1.0867430758122749</v>
       </c>
       <c r="C202">
         <v>1.216394252678572</v>
@@ -4433,13 +4486,13 @@
         <v>1.15591356451613</v>
       </c>
       <c r="E202">
-        <v>0.7108084027486596</v>
+        <v>0.71080840274865964</v>
       </c>
       <c r="F202">
-        <v>0.2469496140591131</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>0.24694961405911309</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>44489</v>
       </c>
@@ -4447,24 +4500,24 @@
         <v>1.08352620123077</v>
       </c>
       <c r="C203">
-        <v>1.190079916820702</v>
+        <v>1.1900799168207019</v>
       </c>
       <c r="D203">
-        <v>1.060681193700789</v>
+        <v>1.0606811937007889</v>
       </c>
       <c r="E203">
-        <v>0.7091542639378973</v>
+        <v>0.70915426393789727</v>
       </c>
       <c r="F203">
-        <v>0.2421474980604209</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>0.24214749806042091</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>44490</v>
       </c>
       <c r="B204">
-        <v>1.06033023573201</v>
+        <v>1.0603302357320099</v>
       </c>
       <c r="C204">
         <v>1.168527145403379</v>
@@ -4473,13 +4526,13 @@
         <v>1.01015658233533</v>
       </c>
       <c r="E204">
-        <v>0.7859484333821388</v>
+        <v>0.78594843338213882</v>
       </c>
       <c r="F204">
-        <v>0.2979231166414207</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>0.29792311664142068</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>44491</v>
       </c>
@@ -4487,19 +4540,19 @@
         <v>1.103417122707147</v>
       </c>
       <c r="C205">
-        <v>1.272263820683112</v>
+        <v>1.2722638206831121</v>
       </c>
       <c r="D205">
-        <v>0.9929901642011839</v>
+        <v>0.99299016420118391</v>
       </c>
       <c r="E205">
-        <v>0.7476861947094517</v>
+        <v>0.74768619470945175</v>
       </c>
       <c r="F205">
         <v>0.2848329273322408</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>44494</v>
       </c>
@@ -4510,61 +4563,61 @@
         <v>1.268213563880884</v>
       </c>
       <c r="D206">
-        <v>1.023530784546805</v>
+        <v>1.0235307845468049</v>
       </c>
       <c r="E206">
-        <v>0.7842145440512955</v>
+        <v>0.78421454405129554</v>
       </c>
       <c r="F206">
         <v>0.2397586253326878</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>44495</v>
       </c>
       <c r="B207">
-        <v>1.112838554333765</v>
+        <v>1.1128385543337651</v>
       </c>
       <c r="C207">
-        <v>1.281710785178238</v>
+        <v>1.2817107851782381</v>
       </c>
       <c r="D207">
-        <v>1.033320911854105</v>
+        <v>1.0333209118541049</v>
       </c>
       <c r="E207">
         <v>0.8876345847169822</v>
       </c>
       <c r="F207">
-        <v>0.3113976005264883</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>0.31139760052648829</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>44496</v>
       </c>
       <c r="B208">
-        <v>1.121808246105919</v>
+        <v>1.1218082461059189</v>
       </c>
       <c r="C208">
         <v>1.338967342350746</v>
       </c>
       <c r="D208">
-        <v>0.9944012367223073</v>
+        <v>0.99440123672230729</v>
       </c>
       <c r="E208">
-        <v>0.8218997796884476</v>
+        <v>0.82189977968844763</v>
       </c>
       <c r="F208">
-        <v>0.2783222362882665</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>0.27832223628826652</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>44497</v>
       </c>
       <c r="B209">
-        <v>1.099248974763407</v>
+        <v>1.0992489747634071</v>
       </c>
       <c r="C209">
         <v>1.297010461677186</v>
@@ -4576,30 +4629,30 @@
         <v>0.9092274682060365</v>
       </c>
       <c r="F209">
-        <v>0.2472957378366639</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>0.24729573783666389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>44498</v>
       </c>
       <c r="B210">
-        <v>1.088315962406016</v>
+        <v>1.0883159624060159</v>
       </c>
       <c r="C210">
         <v>1.302454427902624</v>
       </c>
       <c r="D210">
-        <v>1.001007252615845</v>
+        <v>1.0010072526158449</v>
       </c>
       <c r="E210">
-        <v>0.9217342691187178</v>
+        <v>0.92173426911871781</v>
       </c>
       <c r="F210">
-        <v>0.2910878161051424</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>0.29108781610514239</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>44501</v>
       </c>
@@ -4610,16 +4663,16 @@
         <v>1.320683153187439</v>
       </c>
       <c r="D211">
-        <v>1.077147735159817</v>
+        <v>1.0771477351598171</v>
       </c>
       <c r="E211">
-        <v>0.9029586502267583</v>
+        <v>0.90295865022675825</v>
       </c>
       <c r="F211">
-        <v>0.2481397246376804</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>0.24813972463768039</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>44502</v>
       </c>
@@ -4627,50 +4680,50 @@
         <v>1.176726997349238</v>
       </c>
       <c r="C212">
-        <v>1.323165608780488</v>
+        <v>1.3231656087804879</v>
       </c>
       <c r="D212">
         <v>1.156653213960545</v>
       </c>
       <c r="E212">
-        <v>0.8760963772156236</v>
+        <v>0.87609637721562361</v>
       </c>
       <c r="F212">
-        <v>0.2499089357906003</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>0.24990893579060031</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>44503</v>
       </c>
       <c r="B213">
-        <v>1.275267679455446</v>
+        <v>1.2752676794554461</v>
       </c>
       <c r="C213">
-        <v>1.383238043137253</v>
+        <v>1.3832380431372531</v>
       </c>
       <c r="D213">
-        <v>1.165967792452829</v>
+        <v>1.1659677924528291</v>
       </c>
       <c r="E213">
-        <v>0.9793831626232579</v>
+        <v>0.97938316262325786</v>
       </c>
       <c r="F213">
-        <v>0.2884075374253021</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>0.28840753742530212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>44504</v>
       </c>
       <c r="B214">
-        <v>1.277925669527897</v>
+        <v>1.2779256695278971</v>
       </c>
       <c r="C214">
         <v>1.405691573407204</v>
       </c>
       <c r="D214">
-        <v>1.137975729532163</v>
+        <v>1.1379757295321631</v>
       </c>
       <c r="E214">
         <v>0.9155675513866246</v>
@@ -4679,7 +4732,7 @@
         <v>0.2469536582360555</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>44505</v>
       </c>
@@ -4687,64 +4740,64 @@
         <v>1.2311570450656</v>
       </c>
       <c r="C215">
-        <v>1.377225987735852</v>
+        <v>1.3772259877358519</v>
       </c>
       <c r="D215">
-        <v>1.103289067873302</v>
+        <v>1.1032890678733021</v>
       </c>
       <c r="E215">
-        <v>0.8763969661648061</v>
+        <v>0.87639696616480611</v>
       </c>
       <c r="F215">
         <v>0.2765208383944841</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>44508</v>
       </c>
       <c r="B216">
-        <v>1.240063636688505</v>
+        <v>1.2400636366885049</v>
       </c>
       <c r="C216">
-        <v>1.484929496055227</v>
+        <v>1.4849294960552271</v>
       </c>
       <c r="D216">
-        <v>1.120863778787878</v>
+        <v>1.1208637787878779</v>
       </c>
       <c r="E216">
         <v>0.83885311038402</v>
       </c>
       <c r="F216">
-        <v>0.2912480709885573</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+        <v>0.29124807098855732</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>44509</v>
       </c>
       <c r="B217">
-        <v>1.223244758342921</v>
+        <v>1.2232447583429209</v>
       </c>
       <c r="C217">
-        <v>1.370939611213234</v>
+        <v>1.3709396112132339</v>
       </c>
       <c r="D217">
         <v>1.134756064896755</v>
       </c>
       <c r="E217">
-        <v>0.9045572162629741</v>
+        <v>0.90455721626297414</v>
       </c>
       <c r="F217">
-        <v>0.2607243781644035</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+        <v>0.26072437816440353</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>44510</v>
       </c>
       <c r="B218">
-        <v>1.231703522662078</v>
+        <v>1.2317035226620781</v>
       </c>
       <c r="C218">
         <v>1.363736088342439</v>
@@ -4753,33 +4806,33 @@
         <v>1.097102260802469</v>
       </c>
       <c r="E218">
-        <v>0.9656717086014187</v>
+        <v>0.96567170860141871</v>
       </c>
       <c r="F218">
-        <v>0.3102946165520037</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+        <v>0.31029461655200369</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>44511</v>
       </c>
       <c r="B219">
-        <v>1.179864892755277</v>
+        <v>1.1798648927552771</v>
       </c>
       <c r="C219">
-        <v>1.299839779564807</v>
+        <v>1.2998397795648069</v>
       </c>
       <c r="D219">
         <v>1.06654425910364</v>
       </c>
       <c r="E219">
-        <v>0.9091300425973202</v>
+        <v>0.90913004259732022</v>
       </c>
       <c r="F219">
-        <v>0.2979694590701372</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>0.29796945907013722</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>44512</v>
       </c>
@@ -4787,79 +4840,79 @@
         <v>1.154589892035399</v>
       </c>
       <c r="C220">
-        <v>1.27427809635173</v>
+        <v>1.2742780963517299</v>
       </c>
       <c r="D220">
         <v>1.045003932471263</v>
       </c>
       <c r="E220">
-        <v>0.8720340765456333</v>
+        <v>0.87203407654563325</v>
       </c>
       <c r="F220">
-        <v>0.2574324380246917</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>0.25743243802469168</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>44515</v>
       </c>
       <c r="B221">
-        <v>1.165892947036571</v>
+        <v>1.1658929470365711</v>
       </c>
       <c r="C221">
         <v>1.328624186376538</v>
       </c>
       <c r="D221">
-        <v>1.063271689602446</v>
+        <v>1.0632716896024459</v>
       </c>
       <c r="E221">
-        <v>0.8940228858154842</v>
+        <v>0.89402288581548417</v>
       </c>
       <c r="F221">
-        <v>0.2481548251021991</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+        <v>0.24815482510219911</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>44516</v>
       </c>
       <c r="B222">
-        <v>1.174788918854413</v>
+        <v>1.1747889188544129</v>
       </c>
       <c r="C222">
         <v>1.329973306873184</v>
       </c>
       <c r="D222">
-        <v>1.066468645209581</v>
+        <v>1.0664686452095811</v>
       </c>
       <c r="E222">
-        <v>0.8955692452798361</v>
+        <v>0.89556924527983606</v>
       </c>
       <c r="F222">
-        <v>0.2556223287598383</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>0.25562232875983831</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>44517</v>
       </c>
       <c r="B223">
-        <v>1.166740688806888</v>
+        <v>1.1667406888068881</v>
       </c>
       <c r="C223">
         <v>1.330042317713215</v>
       </c>
       <c r="D223">
-        <v>1.057042754545454</v>
+        <v>1.0570427545454539</v>
       </c>
       <c r="E223">
-        <v>0.9119302305211369</v>
+        <v>0.91193023052113686</v>
       </c>
       <c r="F223">
-        <v>0.2606766816475496</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>0.26067668164754959</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>44518</v>
       </c>
@@ -4867,24 +4920,24 @@
         <v>1.164306241400491</v>
       </c>
       <c r="C224">
-        <v>1.315432785447762</v>
+        <v>1.3154327854477621</v>
       </c>
       <c r="D224">
-        <v>1.07634212957317</v>
+        <v>1.0763421295731701</v>
       </c>
       <c r="E224">
-        <v>0.9098963665468238</v>
+        <v>0.90989636654682382</v>
       </c>
       <c r="F224">
-        <v>0.2663365340548811</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+        <v>0.26633653405488111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>44519</v>
       </c>
       <c r="B225">
-        <v>1.215961787878788</v>
+        <v>1.2159617878787881</v>
       </c>
       <c r="C225">
         <v>1.336459815040651</v>
@@ -4893,13 +4946,13 @@
         <v>1.072364183870967</v>
       </c>
       <c r="E225">
-        <v>0.8619083315024817</v>
+        <v>0.86190833150248169</v>
       </c>
       <c r="F225">
-        <v>0.2830624635075111</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+        <v>0.28306246350751108</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>44522</v>
       </c>
@@ -4913,13 +4966,13 @@
         <v>1.097033262658228</v>
       </c>
       <c r="E226">
-        <v>0.9528711468956885</v>
+        <v>0.95287114689568853</v>
       </c>
       <c r="F226">
-        <v>0.3057198224257812</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+        <v>0.30571982242578122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44523</v>
       </c>
@@ -4933,38 +4986,38 @@
         <v>1.142216428120062</v>
       </c>
       <c r="E227">
-        <v>0.9450992061751287</v>
+        <v>0.94509920617512866</v>
       </c>
       <c r="F227">
-        <v>0.3008346220055106</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+        <v>0.30083462200551059</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44524</v>
       </c>
       <c r="B228">
-        <v>1.214593201660736</v>
+        <v>1.2145932016607359</v>
       </c>
       <c r="C228">
-        <v>1.325757512512511</v>
+        <v>1.3257575125125109</v>
       </c>
       <c r="D228">
-        <v>1.101451674015748</v>
+        <v>1.1014516740157481</v>
       </c>
       <c r="E228">
-        <v>0.8546426732928388</v>
+        <v>0.85464267329283883</v>
       </c>
       <c r="F228">
-        <v>0.2912836488297874</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+        <v>0.29128364882978741</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>44526</v>
       </c>
       <c r="B229">
-        <v>1.251476120977354</v>
+        <v>1.2514761209773539</v>
       </c>
       <c r="C229">
         <v>1.377080311702126</v>
@@ -4973,13 +5026,13 @@
         <v>1.1557275828125</v>
       </c>
       <c r="E229">
-        <v>0.9490242286602066</v>
+        <v>0.94902422866020664</v>
       </c>
       <c r="F229">
-        <v>0.339504160498057</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+        <v>0.33950416049805698</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44529</v>
       </c>
@@ -4990,36 +5043,36 @@
         <v>1.367292564941923</v>
       </c>
       <c r="D230">
-        <v>1.157501855573</v>
+        <v>1.1575018555729999</v>
       </c>
       <c r="E230">
-        <v>0.8833707083041328</v>
+        <v>0.88337070830413278</v>
       </c>
       <c r="F230">
-        <v>0.34070216132287</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>0.34070216132287001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44530</v>
       </c>
       <c r="B231">
-        <v>1.256457466055045</v>
+        <v>1.2564574660550449</v>
       </c>
       <c r="C231">
-        <v>1.41376991507431</v>
+        <v>1.4137699150743099</v>
       </c>
       <c r="D231">
         <v>1.136778424040066</v>
       </c>
       <c r="E231">
-        <v>0.9262975271234861</v>
+        <v>0.92629752712348612</v>
       </c>
       <c r="F231">
-        <v>0.3735900356045928</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>0.37359003560459281</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44531</v>
       </c>
@@ -5033,18 +5086,18 @@
         <v>1.208338627483444</v>
       </c>
       <c r="E232">
-        <v>0.9611633033054838</v>
+        <v>0.96116330330548383</v>
       </c>
       <c r="F232">
-        <v>0.3785513662034469</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+        <v>0.37855136620344693</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44532</v>
       </c>
       <c r="B233">
-        <v>1.330856284431135</v>
+        <v>1.3308562844311349</v>
       </c>
       <c r="C233">
         <v>1.522582846723042</v>
@@ -5053,13 +5106,13 @@
         <v>1.153582175438596</v>
       </c>
       <c r="E233">
-        <v>0.8794152861520779</v>
+        <v>0.87941528615207787</v>
       </c>
       <c r="F233">
-        <v>0.3099516816723815</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+        <v>0.30995168167238152</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44533</v>
       </c>
@@ -5073,13 +5126,13 @@
         <v>1.184910844221104</v>
       </c>
       <c r="E234">
-        <v>0.8978233186732616</v>
+        <v>0.89782331867326159</v>
       </c>
       <c r="F234">
-        <v>0.34929456608826</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+        <v>0.34929456608825998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44536</v>
       </c>
@@ -5087,19 +5140,19 @@
         <v>1.447726066037734</v>
       </c>
       <c r="C235">
-        <v>1.545748308360478</v>
+        <v>1.5457483083604779</v>
       </c>
       <c r="D235">
         <v>1.166149332758619</v>
       </c>
       <c r="E235">
-        <v>0.8927000270751687</v>
+        <v>0.89270002707516871</v>
       </c>
       <c r="F235">
-        <v>0.3136216853162326</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+        <v>0.31362168531623258</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44537</v>
       </c>
@@ -5107,19 +5160,19 @@
         <v>1.384710032339884</v>
       </c>
       <c r="C236">
-        <v>1.456667925806452</v>
+        <v>1.4566679258064521</v>
       </c>
       <c r="D236">
         <v>1.160512417637271</v>
       </c>
       <c r="E236">
-        <v>0.8446552643062202</v>
+        <v>0.84465526430622018</v>
       </c>
       <c r="F236">
-        <v>0.2920499945572056</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+        <v>0.29204999455720559</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44538</v>
       </c>
@@ -5130,16 +5183,16 @@
         <v>1.478525435804702</v>
       </c>
       <c r="D237">
-        <v>1.130183834196891</v>
+        <v>1.1301838341968911</v>
       </c>
       <c r="E237">
-        <v>0.8767619843640219</v>
+        <v>0.87676198436402186</v>
       </c>
       <c r="F237">
-        <v>0.3227621442598971</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+        <v>0.32276214425989708</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>44539</v>
       </c>
@@ -5153,13 +5206,13 @@
         <v>1.139240789999999</v>
       </c>
       <c r="E238">
-        <v>0.9167750844752838</v>
+        <v>0.91677508447528377</v>
       </c>
       <c r="F238">
-        <v>0.3437055005634678</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+        <v>0.34370550056346783</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>44540</v>
       </c>
@@ -5167,10 +5220,10 @@
         <v>1.343296438844499</v>
       </c>
       <c r="C239">
-        <v>1.555807830083565</v>
+        <v>1.5558078300835649</v>
       </c>
       <c r="D239">
-        <v>1.113543099485422</v>
+        <v>1.1135430994854221</v>
       </c>
       <c r="E239">
         <v>0.8655277732414296</v>
@@ -5179,7 +5232,7 @@
         <v>0.2679208195463284</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>44543</v>
       </c>
@@ -5190,36 +5243,36 @@
         <v>1.687309738388626</v>
       </c>
       <c r="D240">
-        <v>1.132868096491228</v>
+        <v>1.1328680964912281</v>
       </c>
       <c r="E240">
-        <v>0.8897073281052815</v>
+        <v>0.88970732810528153</v>
       </c>
       <c r="F240">
-        <v>0.3429568763082786</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+        <v>0.34295687630827859</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>44544</v>
       </c>
       <c r="B241">
-        <v>1.491969139563104</v>
+        <v>1.4919691395631041</v>
       </c>
       <c r="C241">
-        <v>1.634220050814957</v>
+        <v>1.6342200508149569</v>
       </c>
       <c r="D241">
-        <v>1.193797216457961</v>
+        <v>1.1937972164579611</v>
       </c>
       <c r="E241">
-        <v>0.8492017479437025</v>
+        <v>0.84920174794370251</v>
       </c>
       <c r="F241">
-        <v>0.2945850595892053</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+        <v>0.29458505958920528</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>44545</v>
       </c>
@@ -5227,19 +5280,19 @@
         <v>1.389366996938147</v>
       </c>
       <c r="C242">
-        <v>1.646527977915193</v>
+        <v>1.6465279779151929</v>
       </c>
       <c r="D242">
-        <v>1.21248581535649</v>
+        <v>1.2124858153564899</v>
       </c>
       <c r="E242">
-        <v>0.8444487562594842</v>
+        <v>0.84444875625948423</v>
       </c>
       <c r="F242">
-        <v>0.2805409026559608</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+        <v>0.28054090265596082</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>44546</v>
       </c>
@@ -5250,16 +5303,16 @@
         <v>1.599424400884955</v>
       </c>
       <c r="D243">
-        <v>1.221974794594595</v>
+        <v>1.2219747945945949</v>
       </c>
       <c r="E243">
-        <v>0.917955376290492</v>
+        <v>0.91795537629049195</v>
       </c>
       <c r="F243">
-        <v>0.3716851001229183</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+        <v>0.37168510012291828</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>44547</v>
       </c>
@@ -5267,59 +5320,59 @@
         <v>1.369514363582087</v>
       </c>
       <c r="C244">
-        <v>1.599233266728625</v>
+        <v>1.5992332667286251</v>
       </c>
       <c r="D244">
-        <v>1.181613315487572</v>
+        <v>1.1816133154875721</v>
       </c>
       <c r="E244">
-        <v>0.8926084633227604</v>
+        <v>0.89260846332276045</v>
       </c>
       <c r="F244">
-        <v>0.3312620417914011</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+        <v>0.33126204179140112</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>44550</v>
       </c>
       <c r="B245">
-        <v>1.415806225473324</v>
+        <v>1.4158062254733239</v>
       </c>
       <c r="C245">
         <v>1.600493630434783</v>
       </c>
       <c r="D245">
-        <v>1.295202183673469</v>
+        <v>1.2952021836734691</v>
       </c>
       <c r="E245">
-        <v>0.8886210066732071</v>
+        <v>0.88862100667320709</v>
       </c>
       <c r="F245">
-        <v>0.3248869898549006</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+        <v>0.32488698985490061</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>44551</v>
       </c>
       <c r="B246">
-        <v>1.36108205963029</v>
+        <v>1.3610820596302899</v>
       </c>
       <c r="C246">
-        <v>1.484793940327238</v>
+        <v>1.4847939403272381</v>
       </c>
       <c r="D246">
         <v>1.333448141509435</v>
       </c>
       <c r="E246">
-        <v>0.808411255319149</v>
+        <v>0.80841125531914904</v>
       </c>
       <c r="F246">
-        <v>0.2752384639818496</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+        <v>0.27523846398184959</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>44552</v>
       </c>
@@ -5327,39 +5380,39 @@
         <v>1.333274679178887</v>
       </c>
       <c r="C247">
-        <v>1.490952478682173</v>
+        <v>1.4909524786821731</v>
       </c>
       <c r="D247">
-        <v>1.10572625095057</v>
+        <v>1.1057262509505701</v>
       </c>
       <c r="E247">
-        <v>0.8597692912293194</v>
+        <v>0.85976929122931944</v>
       </c>
       <c r="F247">
         <v>0.2846287150068833</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>44553</v>
       </c>
       <c r="B248">
-        <v>1.291332150292399</v>
+        <v>1.2913321502923989</v>
       </c>
       <c r="C248">
-        <v>1.430530928923987</v>
+        <v>1.4305309289239869</v>
       </c>
       <c r="D248">
-        <v>1.005591829588015</v>
+        <v>1.0055918295880151</v>
       </c>
       <c r="E248">
-        <v>0.8931806986772968</v>
+        <v>0.89318069867729677</v>
       </c>
       <c r="F248">
-        <v>0.3116047800000002</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+        <v>0.31160478000000019</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>44557</v>
       </c>
@@ -5376,50 +5429,50 @@
         <v>0.8408158470566337</v>
       </c>
       <c r="F249">
-        <v>0.2640177210758167</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>0.26401772107581672</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>44558</v>
       </c>
       <c r="B250">
-        <v>1.283586260391197</v>
+        <v>1.2835862603911969</v>
       </c>
       <c r="C250">
-        <v>1.406279879361915</v>
+        <v>1.4062798793619149</v>
       </c>
       <c r="D250">
         <v>1.002350023668638</v>
       </c>
       <c r="E250">
-        <v>0.8462974036798506</v>
+        <v>0.84629740367985062</v>
       </c>
       <c r="F250">
-        <v>0.2676996528368791</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>0.26769965283687908</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>44559</v>
       </c>
       <c r="B251">
-        <v>1.264782134892089</v>
+        <v>1.2647821348920889</v>
       </c>
       <c r="C251">
-        <v>1.416710062374244</v>
+        <v>1.4167100623742439</v>
       </c>
       <c r="D251">
         <v>1.059964445075757</v>
       </c>
       <c r="E251">
-        <v>0.9157847696948792</v>
+        <v>0.91578476969487921</v>
       </c>
       <c r="F251">
-        <v>0.3195077193657451</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+        <v>0.31950771936574512</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>44560</v>
       </c>
@@ -5430,33 +5483,33 @@
         <v>1.338756432550043</v>
       </c>
       <c r="D252">
-        <v>0.9677195217391307</v>
+        <v>0.96771952173913067</v>
       </c>
       <c r="E252">
-        <v>0.8466756913471662</v>
+        <v>0.84667569134716625</v>
       </c>
       <c r="F252">
         <v>0.2678087260622905</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>44561</v>
       </c>
       <c r="B253">
-        <v>1.205244512742721</v>
+        <v>1.2052445127427209</v>
       </c>
       <c r="C253">
         <v>1.318770124003543</v>
       </c>
       <c r="D253">
-        <v>0.9383198080808066</v>
+        <v>0.93831980808080662</v>
       </c>
       <c r="E253">
-        <v>0.8272310007237232</v>
+        <v>0.82723100072372324</v>
       </c>
       <c r="F253">
-        <v>0.2682288595022093</v>
+        <v>0.26822885950220932</v>
       </c>
     </row>
   </sheetData>
